--- a/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950114A0-0A0A-459D-888F-1CC0C7566271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA026D-55DF-4DC1-9010-586DB54D8B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -3528,54 +3528,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>i_decisionNumberが0x0000のとき、FALSEを返す。
-i_decisionNumberが0xFFFFのとき、TRUEを返す。
-i_decisionNumberがX(0x0001~0xFFFE)のとき、100回実行した時の出現数が、X/乱数の最大値(出現率)の±5%以内か。(出現率シート参照)</t>
-    <rPh sb="33" eb="34">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="130" eb="133">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ランダムな値を取得する。
 入出力の説明と範囲</t>
     <rPh sb="5" eb="6">
@@ -3860,6 +3812,54 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>i_decisionNumberが0x0000のとき、FALSEを返す。
+i_decisionNumberが0xFFFFのとき、TRUEを返す。
+i_decisionNumberがX(0x0001~0xFFFE)で100回実行した時、TRUEを返した回数が X/乱数の最大値(出現率)の±5% 以内か。(出現率シート参照)</t>
+    <rPh sb="33" eb="34">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4729,26 +4729,26 @@
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="49.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="49.58203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="2"/>
+    <col min="14" max="14" width="49.58203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:14" ht="29">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -4762,8 +4762,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1">
+    <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
+    <row r="3" spans="1:14" ht="18.5" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.25" thickBot="1">
+    <row r="4" spans="1:14" ht="20.5" thickBot="1">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="38.25" thickBot="1">
+    <row r="5" spans="1:14" ht="36.5" thickBot="1">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="57" thickBot="1">
+    <row r="6" spans="1:14" ht="54.5" thickBot="1">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="57" thickBot="1">
+    <row r="7" spans="1:14" ht="54.5" thickBot="1">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="38.25" thickBot="1">
+    <row r="8" spans="1:14" ht="36.5" thickBot="1">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="38.25" thickBot="1">
+    <row r="9" spans="1:14" ht="36.5" thickBot="1">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="38.25" thickBot="1">
+    <row r="10" spans="1:14" ht="36.5" thickBot="1">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="38.25" thickBot="1">
+    <row r="11" spans="1:14" ht="36.5" thickBot="1">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="38.25" thickBot="1">
+    <row r="12" spans="1:14" ht="36.5" thickBot="1">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" ht="57" thickBot="1">
+    <row r="13" spans="1:14" ht="54.5" thickBot="1">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="38.25" thickBot="1">
+    <row r="14" spans="1:14" ht="36.5" thickBot="1">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="38.25" thickBot="1">
+    <row r="15" spans="1:14" ht="36.5" thickBot="1">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="38.25" thickBot="1">
+    <row r="16" spans="1:14" ht="36.5" thickBot="1">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="2:14" ht="20.25" thickBot="1">
+    <row r="17" spans="2:14" ht="20.5" thickBot="1">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" ht="38.25" thickBot="1">
+    <row r="18" spans="2:14" ht="36.5" thickBot="1">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" ht="38.25" thickBot="1">
+    <row r="19" spans="2:14" ht="36.5" thickBot="1">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" ht="38.25" thickBot="1">
+    <row r="20" spans="2:14" ht="36.5" thickBot="1">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="2:14" ht="38.25" thickBot="1">
+    <row r="21" spans="2:14" ht="36.5" thickBot="1">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" ht="38.25" thickBot="1">
+    <row r="22" spans="2:14" ht="36.5" thickBot="1">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" ht="38.25" thickBot="1">
+    <row r="23" spans="2:14" ht="36.5" thickBot="1">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" ht="38.25" thickBot="1">
+    <row r="24" spans="2:14" ht="36.5" thickBot="1">
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="2:14" ht="20.25" thickBot="1">
+    <row r="25" spans="2:14" ht="20.5" thickBot="1">
       <c r="B25" s="6">
         <v>22</v>
       </c>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="2:14" ht="38.25" thickBot="1">
+    <row r="26" spans="2:14" ht="36.5" thickBot="1">
       <c r="B26" s="6">
         <v>23</v>
       </c>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="2:14" ht="75.75" thickBot="1">
+    <row r="27" spans="2:14" ht="72.5" thickBot="1">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" ht="75.75" thickBot="1">
+    <row r="28" spans="2:14" ht="72.5" thickBot="1">
       <c r="B28" s="6">
         <v>25</v>
       </c>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" ht="38.25" thickBot="1">
+    <row r="29" spans="2:14" ht="36.5" thickBot="1">
       <c r="B29" s="6">
         <v>26</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" ht="38.25" thickBot="1">
+    <row r="30" spans="2:14" ht="36.5" thickBot="1">
       <c r="B30" s="6">
         <v>27</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" ht="38.25" thickBot="1">
+    <row r="31" spans="2:14" ht="36.5" thickBot="1">
       <c r="B31" s="6">
         <v>28</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" ht="38.25" thickBot="1">
+    <row r="32" spans="2:14" ht="36.5" thickBot="1">
       <c r="B32" s="6">
         <v>29</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" ht="38.25" thickBot="1">
+    <row r="33" spans="2:14" ht="36.5" thickBot="1">
       <c r="B33" s="6">
         <v>30</v>
       </c>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" ht="38.25" thickBot="1">
+    <row r="34" spans="2:14" ht="36.5" thickBot="1">
       <c r="B34" s="6">
         <v>31</v>
       </c>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" ht="38.25" thickBot="1">
+    <row r="35" spans="2:14" ht="36.5" thickBot="1">
       <c r="B35" s="6">
         <v>32</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" ht="38.25" thickBot="1">
+    <row r="36" spans="2:14" ht="36.5" thickBot="1">
       <c r="B36" s="6">
         <v>33</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" ht="38.25" thickBot="1">
+    <row r="37" spans="2:14" ht="36.5" thickBot="1">
       <c r="B37" s="6">
         <v>34</v>
       </c>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" ht="38.25" thickBot="1">
+    <row r="38" spans="2:14" ht="36.5" thickBot="1">
       <c r="B38" s="6">
         <v>35</v>
       </c>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="N38" s="40"/>
     </row>
-    <row r="39" spans="2:14" ht="38.25" thickBot="1">
+    <row r="39" spans="2:14" ht="36.5" thickBot="1">
       <c r="B39" s="6">
         <v>36</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" ht="38.25" thickBot="1">
+    <row r="40" spans="2:14" ht="36.5" thickBot="1">
       <c r="B40" s="6">
         <v>37</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" ht="38.25" thickBot="1">
+    <row r="41" spans="2:14" ht="36.5" thickBot="1">
       <c r="B41" s="6">
         <v>38</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" ht="38.25" thickBot="1">
+    <row r="42" spans="2:14" ht="36.5" thickBot="1">
       <c r="B42" s="6">
         <v>39</v>
       </c>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:14" ht="38.25" thickBot="1">
+    <row r="43" spans="2:14" ht="36.5" thickBot="1">
       <c r="B43" s="6">
         <v>40</v>
       </c>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" ht="38.25" thickBot="1">
+    <row r="44" spans="2:14" ht="36.5" thickBot="1">
       <c r="B44" s="6">
         <v>41</v>
       </c>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:14" ht="38.25" thickBot="1">
+    <row r="45" spans="2:14" ht="36.5" thickBot="1">
       <c r="B45" s="6">
         <v>42</v>
       </c>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" ht="38.25" thickBot="1">
+    <row r="46" spans="2:14" ht="36.5" thickBot="1">
       <c r="B46" s="6">
         <v>43</v>
       </c>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" ht="38.25" thickBot="1">
+    <row r="47" spans="2:14" ht="36.5" thickBot="1">
       <c r="B47" s="6">
         <v>44</v>
       </c>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:14" ht="38.25" thickBot="1">
+    <row r="48" spans="2:14" ht="36.5" thickBot="1">
       <c r="B48" s="6">
         <v>45</v>
       </c>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="2:14" ht="38.25" thickBot="1">
+    <row r="49" spans="2:14" ht="36.5" thickBot="1">
       <c r="B49" s="6">
         <v>46</v>
       </c>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="2:14" ht="38.25" thickBot="1">
+    <row r="50" spans="2:14" ht="36.5" thickBot="1">
       <c r="B50" s="6">
         <v>47</v>
       </c>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="2:14" ht="38.25" thickBot="1">
+    <row r="51" spans="2:14" ht="36.5" thickBot="1">
       <c r="B51" s="6">
         <v>48</v>
       </c>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="2:14" ht="38.25" thickBot="1">
+    <row r="52" spans="2:14" ht="36.5" thickBot="1">
       <c r="B52" s="6">
         <v>49</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="2:14" ht="38.25" thickBot="1">
+    <row r="53" spans="2:14" ht="36.5" thickBot="1">
       <c r="B53" s="6">
         <v>50</v>
       </c>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="2:14" ht="38.25" thickBot="1">
+    <row r="54" spans="2:14" ht="36.5" thickBot="1">
       <c r="B54" s="6">
         <v>51</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="N54" s="24"/>
     </row>
-    <row r="55" spans="2:14" ht="38.25" thickBot="1">
+    <row r="55" spans="2:14" ht="36.5" thickBot="1">
       <c r="B55" s="6">
         <v>52</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="57" thickBot="1">
+    <row r="56" spans="2:14" ht="54.5" thickBot="1">
       <c r="B56" s="6">
         <v>53</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="N56" s="40"/>
     </row>
-    <row r="57" spans="2:14" ht="38.25" thickBot="1">
+    <row r="57" spans="2:14" ht="36.5" thickBot="1">
       <c r="B57" s="6">
         <v>54</v>
       </c>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="2:14" ht="38.25" thickBot="1">
+    <row r="58" spans="2:14" ht="36.5" thickBot="1">
       <c r="B58" s="6">
         <v>55</v>
       </c>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="N58" s="24"/>
     </row>
-    <row r="59" spans="2:14" ht="38.25" thickBot="1">
+    <row r="59" spans="2:14" ht="36.5" thickBot="1">
       <c r="B59" s="6">
         <v>56</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="N59" s="46"/>
     </row>
-    <row r="60" spans="2:14" ht="38.25" thickBot="1">
+    <row r="60" spans="2:14" ht="36.5" thickBot="1">
       <c r="B60" s="6">
         <v>57</v>
       </c>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="2:14" ht="38.25" thickBot="1">
+    <row r="61" spans="2:14" ht="36.5" thickBot="1">
       <c r="B61" s="6">
         <v>58</v>
       </c>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="2:14" ht="20.25" thickBot="1">
+    <row r="62" spans="2:14" ht="20.5" thickBot="1">
       <c r="B62" s="6">
         <v>59</v>
       </c>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="2:14" ht="20.25" thickBot="1">
+    <row r="63" spans="2:14" ht="20.5" thickBot="1">
       <c r="B63" s="6">
         <v>60</v>
       </c>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="2:14" ht="20.25" thickBot="1">
+    <row r="64" spans="2:14" ht="20.5" thickBot="1">
       <c r="B64" s="6">
         <v>61</v>
       </c>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="N64" s="30"/>
     </row>
-    <row r="66" spans="2:13" ht="24">
+    <row r="66" spans="2:13" ht="22.5">
       <c r="B66" s="49" t="s">
         <v>220</v>
       </c>
@@ -6966,33 +6966,33 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
     <col min="7" max="7" width="66.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.75" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="49.625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="49.58203125" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.25" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49.625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="2"/>
+    <col min="16" max="16" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
@@ -7005,8 +7005,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:16" ht="20.25" thickBot="1">
+    <row r="2" spans="1:16" ht="18.5" thickBot="1"/>
+    <row r="3" spans="1:16" ht="20.5" thickBot="1">
       <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
@@ -7017,10 +7017,10 @@
         <v>226</v>
       </c>
       <c r="E3" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>239</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>240</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>227</v>
@@ -7053,7 +7053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="59.25" thickBot="1">
+    <row r="4" spans="1:16" ht="60.5" thickBot="1">
       <c r="B4" s="70">
         <v>1</v>
       </c>
@@ -7061,16 +7061,16 @@
         <v>232</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="62"/>
       <c r="I4" s="63"/>
@@ -7082,7 +7082,7 @@
       <c r="O4" s="60"/>
       <c r="P4" s="61"/>
     </row>
-    <row r="5" spans="1:16" ht="137.25" thickBot="1">
+    <row r="5" spans="1:16" ht="140.5" thickBot="1">
       <c r="B5" s="70">
         <v>2</v>
       </c>
@@ -7093,13 +7093,13 @@
         <v>231</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="62" t="s">
         <v>247</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>248</v>
       </c>
       <c r="H5" s="62"/>
       <c r="I5" s="63"/>
@@ -7111,7 +7111,7 @@
       <c r="O5" s="60"/>
       <c r="P5" s="61"/>
     </row>
-    <row r="6" spans="1:16" ht="78.75" thickBot="1">
+    <row r="6" spans="1:16" ht="80.5" thickBot="1">
       <c r="B6" s="73">
         <v>3</v>
       </c>
@@ -7122,13 +7122,13 @@
         <v>230</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="74"/>
@@ -7140,7 +7140,7 @@
       <c r="O6" s="60"/>
       <c r="P6" s="61"/>
     </row>
-    <row r="7" spans="1:16" ht="19.5">
+    <row r="7" spans="1:16" ht="20">
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -7157,7 +7157,7 @@
       <c r="O7" s="60"/>
       <c r="P7" s="61"/>
     </row>
-    <row r="8" spans="1:16" ht="19.5">
+    <row r="8" spans="1:16" ht="20">
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
       <c r="D8" s="79"/>
@@ -7168,7 +7168,7 @@
       <c r="I8" s="82"/>
       <c r="J8" s="79"/>
       <c r="K8" s="3">
-        <f ca="1">COUNTA(K4:K71)</f>
+        <f>COUNTA(K4:K6)</f>
         <v>0</v>
       </c>
       <c r="L8" s="84"/>
@@ -7177,7 +7177,7 @@
       <c r="O8" s="60"/>
       <c r="P8" s="61"/>
     </row>
-    <row r="9" spans="1:16" ht="39">
+    <row r="9" spans="1:16" ht="40">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
@@ -7196,7 +7196,7 @@
       <c r="O9" s="60"/>
       <c r="P9" s="61"/>
     </row>
-    <row r="10" spans="1:16" ht="19.5">
+    <row r="10" spans="1:16" ht="20">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
@@ -7215,7 +7215,7 @@
       <c r="O10" s="60"/>
       <c r="P10" s="61"/>
     </row>
-    <row r="11" spans="1:16" ht="19.5">
+    <row r="11" spans="1:16" ht="20">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
@@ -7232,7 +7232,7 @@
       <c r="O11" s="60"/>
       <c r="P11" s="61"/>
     </row>
-    <row r="12" spans="1:16" ht="19.5">
+    <row r="12" spans="1:16" ht="20">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="79"/>
@@ -7249,7 +7249,7 @@
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
     </row>
-    <row r="13" spans="1:16" ht="19.5">
+    <row r="13" spans="1:16" ht="20">
       <c r="B13" s="79"/>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
@@ -7266,7 +7266,7 @@
       <c r="O13" s="60"/>
       <c r="P13" s="61"/>
     </row>
-    <row r="14" spans="1:16" ht="19.5">
+    <row r="14" spans="1:16" ht="20">
       <c r="B14" s="79"/>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
@@ -7283,7 +7283,7 @@
       <c r="O14" s="60"/>
       <c r="P14" s="61"/>
     </row>
-    <row r="15" spans="1:16" ht="19.5">
+    <row r="15" spans="1:16" ht="20">
       <c r="B15" s="79"/>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
@@ -7300,7 +7300,7 @@
       <c r="O15" s="60"/>
       <c r="P15" s="61"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5">
+    <row r="16" spans="1:16" ht="20">
       <c r="B16" s="79"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -7317,7 +7317,7 @@
       <c r="O16" s="60"/>
       <c r="P16" s="61"/>
     </row>
-    <row r="17" spans="2:16" ht="19.5">
+    <row r="17" spans="2:16" ht="20">
       <c r="B17" s="79"/>
       <c r="C17" s="84"/>
       <c r="D17" s="79"/>
@@ -7334,7 +7334,7 @@
       <c r="O17" s="60"/>
       <c r="P17" s="61"/>
     </row>
-    <row r="18" spans="2:16" ht="19.5">
+    <row r="18" spans="2:16" ht="20">
       <c r="B18" s="79"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
@@ -7351,7 +7351,7 @@
       <c r="O18" s="60"/>
       <c r="P18" s="61"/>
     </row>
-    <row r="19" spans="2:16" ht="19.5">
+    <row r="19" spans="2:16" ht="20">
       <c r="B19" s="79"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
@@ -7368,7 +7368,7 @@
       <c r="O19" s="60"/>
       <c r="P19" s="61"/>
     </row>
-    <row r="20" spans="2:16" ht="19.5">
+    <row r="20" spans="2:16" ht="20">
       <c r="B20" s="79"/>
       <c r="C20" s="84"/>
       <c r="D20" s="84"/>
@@ -7385,7 +7385,7 @@
       <c r="O20" s="60"/>
       <c r="P20" s="61"/>
     </row>
-    <row r="21" spans="2:16" ht="19.5">
+    <row r="21" spans="2:16" ht="20">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -7402,7 +7402,7 @@
       <c r="O21" s="60"/>
       <c r="P21" s="56"/>
     </row>
-    <row r="22" spans="2:16" ht="19.5">
+    <row r="22" spans="2:16" ht="20">
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
       <c r="D22" s="79"/>
@@ -7419,7 +7419,7 @@
       <c r="O22" s="60"/>
       <c r="P22" s="61"/>
     </row>
-    <row r="23" spans="2:16" ht="19.5">
+    <row r="23" spans="2:16" ht="20">
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
       <c r="D23" s="79"/>
@@ -7436,7 +7436,7 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
     </row>
-    <row r="24" spans="2:16" ht="19.5">
+    <row r="24" spans="2:16" ht="20">
       <c r="B24" s="79"/>
       <c r="C24" s="80"/>
       <c r="D24" s="79"/>
@@ -7453,7 +7453,7 @@
       <c r="O24" s="60"/>
       <c r="P24" s="61"/>
     </row>
-    <row r="25" spans="2:16" ht="19.5">
+    <row r="25" spans="2:16" ht="20">
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="79"/>
@@ -7470,7 +7470,7 @@
       <c r="O25" s="60"/>
       <c r="P25" s="61"/>
     </row>
-    <row r="26" spans="2:16" ht="19.5">
+    <row r="26" spans="2:16" ht="20">
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
       <c r="D26" s="79"/>
@@ -7487,7 +7487,7 @@
       <c r="O26" s="60"/>
       <c r="P26" s="61"/>
     </row>
-    <row r="27" spans="2:16" ht="19.5">
+    <row r="27" spans="2:16" ht="20">
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="79"/>
@@ -7504,7 +7504,7 @@
       <c r="O27" s="60"/>
       <c r="P27" s="61"/>
     </row>
-    <row r="28" spans="2:16" ht="39.6" customHeight="1">
+    <row r="28" spans="2:16" ht="39.65" customHeight="1">
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
       <c r="D28" s="79"/>
@@ -7521,7 +7521,7 @@
       <c r="O28" s="60"/>
       <c r="P28" s="61"/>
     </row>
-    <row r="29" spans="2:16" ht="19.5">
+    <row r="29" spans="2:16" ht="20">
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
       <c r="D29" s="79"/>
@@ -7538,7 +7538,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="61"/>
     </row>
-    <row r="30" spans="2:16" ht="19.5">
+    <row r="30" spans="2:16" ht="20">
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
       <c r="D30" s="79"/>
@@ -7555,7 +7555,7 @@
       <c r="O30" s="60"/>
       <c r="P30" s="61"/>
     </row>
-    <row r="31" spans="2:16" ht="19.5">
+    <row r="31" spans="2:16" ht="20">
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="79"/>
@@ -7572,7 +7572,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="61"/>
     </row>
-    <row r="32" spans="2:16" ht="19.5">
+    <row r="32" spans="2:16" ht="20">
       <c r="B32" s="79"/>
       <c r="C32" s="80"/>
       <c r="D32" s="79"/>
@@ -7589,7 +7589,7 @@
       <c r="O32" s="60"/>
       <c r="P32" s="61"/>
     </row>
-    <row r="33" spans="2:16" ht="19.5">
+    <row r="33" spans="2:16" ht="20">
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
       <c r="D33" s="79"/>
@@ -7606,7 +7606,7 @@
       <c r="O33" s="60"/>
       <c r="P33" s="61"/>
     </row>
-    <row r="34" spans="2:16" ht="19.5">
+    <row r="34" spans="2:16" ht="20">
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="79"/>
@@ -7623,7 +7623,7 @@
       <c r="O34" s="60"/>
       <c r="P34" s="61"/>
     </row>
-    <row r="35" spans="2:16" ht="19.5">
+    <row r="35" spans="2:16" ht="20">
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
       <c r="D35" s="79"/>
@@ -7640,7 +7640,7 @@
       <c r="O35" s="60"/>
       <c r="P35" s="61"/>
     </row>
-    <row r="36" spans="2:16" ht="19.5">
+    <row r="36" spans="2:16" ht="20">
       <c r="B36" s="79"/>
       <c r="C36" s="80"/>
       <c r="D36" s="79"/>
@@ -7657,7 +7657,7 @@
       <c r="O36" s="60"/>
       <c r="P36" s="61"/>
     </row>
-    <row r="37" spans="2:16" ht="19.5">
+    <row r="37" spans="2:16" ht="20">
       <c r="B37" s="79"/>
       <c r="C37" s="80"/>
       <c r="D37" s="79"/>
@@ -7674,7 +7674,7 @@
       <c r="O37" s="60"/>
       <c r="P37" s="61"/>
     </row>
-    <row r="38" spans="2:16" ht="19.5">
+    <row r="38" spans="2:16" ht="20">
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
       <c r="D38" s="79"/>
@@ -7691,7 +7691,7 @@
       <c r="O38" s="60"/>
       <c r="P38" s="61"/>
     </row>
-    <row r="39" spans="2:16" ht="19.5">
+    <row r="39" spans="2:16" ht="20">
       <c r="B39" s="79"/>
       <c r="C39" s="80"/>
       <c r="D39" s="79"/>
@@ -7708,7 +7708,7 @@
       <c r="O39" s="60"/>
       <c r="P39" s="61"/>
     </row>
-    <row r="40" spans="2:16" ht="19.5">
+    <row r="40" spans="2:16" ht="20">
       <c r="B40" s="79"/>
       <c r="C40" s="80"/>
       <c r="D40" s="79"/>
@@ -7725,7 +7725,7 @@
       <c r="O40" s="60"/>
       <c r="P40" s="61"/>
     </row>
-    <row r="41" spans="2:16" ht="19.5">
+    <row r="41" spans="2:16" ht="20">
       <c r="B41" s="79"/>
       <c r="C41" s="80"/>
       <c r="D41" s="79"/>
@@ -7742,7 +7742,7 @@
       <c r="O41" s="60"/>
       <c r="P41" s="61"/>
     </row>
-    <row r="42" spans="2:16" ht="19.5">
+    <row r="42" spans="2:16" ht="20">
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
       <c r="D42" s="79"/>
@@ -7759,7 +7759,7 @@
       <c r="O42" s="60"/>
       <c r="P42" s="61"/>
     </row>
-    <row r="43" spans="2:16" ht="19.5">
+    <row r="43" spans="2:16" ht="20">
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
       <c r="D43" s="79"/>
@@ -7776,7 +7776,7 @@
       <c r="O43" s="60"/>
       <c r="P43" s="61"/>
     </row>
-    <row r="44" spans="2:16" ht="19.5">
+    <row r="44" spans="2:16" ht="20">
       <c r="B44" s="79"/>
       <c r="C44" s="80"/>
       <c r="D44" s="79"/>
@@ -7793,7 +7793,7 @@
       <c r="O44" s="60"/>
       <c r="P44" s="61"/>
     </row>
-    <row r="45" spans="2:16" ht="19.5">
+    <row r="45" spans="2:16" ht="20">
       <c r="B45" s="79"/>
       <c r="C45" s="80"/>
       <c r="D45" s="79"/>
@@ -7810,7 +7810,7 @@
       <c r="O45" s="60"/>
       <c r="P45" s="61"/>
     </row>
-    <row r="46" spans="2:16" ht="19.5">
+    <row r="46" spans="2:16" ht="20">
       <c r="B46" s="79"/>
       <c r="C46" s="80"/>
       <c r="D46" s="79"/>
@@ -7827,7 +7827,7 @@
       <c r="O46" s="60"/>
       <c r="P46" s="61"/>
     </row>
-    <row r="47" spans="2:16" ht="19.5">
+    <row r="47" spans="2:16" ht="20">
       <c r="B47" s="79"/>
       <c r="C47" s="80"/>
       <c r="D47" s="79"/>
@@ -7844,7 +7844,7 @@
       <c r="O47" s="60"/>
       <c r="P47" s="61"/>
     </row>
-    <row r="48" spans="2:16" ht="19.5">
+    <row r="48" spans="2:16" ht="20">
       <c r="B48" s="79"/>
       <c r="C48" s="80"/>
       <c r="D48" s="79"/>
@@ -7861,7 +7861,7 @@
       <c r="O48" s="60"/>
       <c r="P48" s="61"/>
     </row>
-    <row r="49" spans="2:16" ht="19.5">
+    <row r="49" spans="2:16" ht="20">
       <c r="B49" s="79"/>
       <c r="C49" s="80"/>
       <c r="D49" s="79"/>
@@ -7878,7 +7878,7 @@
       <c r="O49" s="60"/>
       <c r="P49" s="61"/>
     </row>
-    <row r="50" spans="2:16" ht="19.5">
+    <row r="50" spans="2:16" ht="20">
       <c r="B50" s="79"/>
       <c r="C50" s="80"/>
       <c r="D50" s="79"/>
@@ -7895,7 +7895,7 @@
       <c r="O50" s="60"/>
       <c r="P50" s="61"/>
     </row>
-    <row r="51" spans="2:16" ht="19.5">
+    <row r="51" spans="2:16" ht="20">
       <c r="B51" s="79"/>
       <c r="C51" s="80"/>
       <c r="D51" s="79"/>
@@ -7912,7 +7912,7 @@
       <c r="O51" s="60"/>
       <c r="P51" s="61"/>
     </row>
-    <row r="52" spans="2:16" ht="19.5">
+    <row r="52" spans="2:16" ht="20">
       <c r="B52" s="79"/>
       <c r="C52" s="80"/>
       <c r="D52" s="79"/>
@@ -7929,7 +7929,7 @@
       <c r="O52" s="60"/>
       <c r="P52" s="61"/>
     </row>
-    <row r="53" spans="2:16" ht="19.5">
+    <row r="53" spans="2:16" ht="20">
       <c r="B53" s="79"/>
       <c r="C53" s="80"/>
       <c r="D53" s="79"/>
@@ -7946,7 +7946,7 @@
       <c r="O53" s="60"/>
       <c r="P53" s="61"/>
     </row>
-    <row r="54" spans="2:16" ht="19.5">
+    <row r="54" spans="2:16" ht="20">
       <c r="B54" s="79"/>
       <c r="C54" s="80"/>
       <c r="D54" s="79"/>
@@ -7963,7 +7963,7 @@
       <c r="O54" s="60"/>
       <c r="P54" s="61"/>
     </row>
-    <row r="55" spans="2:16" ht="19.5">
+    <row r="55" spans="2:16" ht="20">
       <c r="B55" s="79"/>
       <c r="C55" s="80"/>
       <c r="D55" s="79"/>
@@ -7980,7 +7980,7 @@
       <c r="O55" s="60"/>
       <c r="P55" s="61"/>
     </row>
-    <row r="56" spans="2:16" ht="19.5">
+    <row r="56" spans="2:16" ht="20">
       <c r="B56" s="79"/>
       <c r="C56" s="80"/>
       <c r="D56" s="79"/>
@@ -7997,7 +7997,7 @@
       <c r="O56" s="60"/>
       <c r="P56" s="61"/>
     </row>
-    <row r="57" spans="2:16" ht="19.5">
+    <row r="57" spans="2:16" ht="20">
       <c r="B57" s="79"/>
       <c r="C57" s="80"/>
       <c r="D57" s="79"/>
@@ -8014,7 +8014,7 @@
       <c r="O57" s="60"/>
       <c r="P57" s="61"/>
     </row>
-    <row r="58" spans="2:16" ht="19.5">
+    <row r="58" spans="2:16" ht="20">
       <c r="B58" s="79"/>
       <c r="C58" s="80"/>
       <c r="D58" s="79"/>
@@ -8031,7 +8031,7 @@
       <c r="O58" s="60"/>
       <c r="P58" s="61"/>
     </row>
-    <row r="59" spans="2:16" ht="19.5">
+    <row r="59" spans="2:16" ht="20">
       <c r="B59" s="79"/>
       <c r="C59" s="80"/>
       <c r="D59" s="79"/>
@@ -8048,7 +8048,7 @@
       <c r="O59" s="60"/>
       <c r="P59" s="61"/>
     </row>
-    <row r="60" spans="2:16" ht="19.5">
+    <row r="60" spans="2:16" ht="20">
       <c r="B60" s="79"/>
       <c r="C60" s="80"/>
       <c r="D60" s="79"/>
@@ -8065,7 +8065,7 @@
       <c r="O60" s="60"/>
       <c r="P60" s="61"/>
     </row>
-    <row r="61" spans="2:16" ht="19.5">
+    <row r="61" spans="2:16" ht="20">
       <c r="B61" s="79"/>
       <c r="C61" s="80"/>
       <c r="D61" s="79"/>
@@ -8082,7 +8082,7 @@
       <c r="O61" s="60"/>
       <c r="P61" s="61"/>
     </row>
-    <row r="62" spans="2:16" ht="19.5">
+    <row r="62" spans="2:16" ht="20">
       <c r="B62" s="79"/>
       <c r="C62" s="80"/>
       <c r="D62" s="79"/>
@@ -8099,7 +8099,7 @@
       <c r="O62" s="60"/>
       <c r="P62" s="61"/>
     </row>
-    <row r="63" spans="2:16" ht="19.5">
+    <row r="63" spans="2:16" ht="20">
       <c r="B63" s="79"/>
       <c r="C63" s="80"/>
       <c r="D63" s="79"/>
@@ -8116,7 +8116,7 @@
       <c r="O63" s="60"/>
       <c r="P63" s="61"/>
     </row>
-    <row r="64" spans="2:16" ht="19.5">
+    <row r="64" spans="2:16" ht="20">
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
       <c r="D64" s="79"/>
@@ -8133,7 +8133,7 @@
       <c r="O64" s="60"/>
       <c r="P64" s="61"/>
     </row>
-    <row r="65" spans="2:16" ht="19.5">
+    <row r="65" spans="2:16" ht="20">
       <c r="B65" s="79"/>
       <c r="C65" s="80"/>
       <c r="D65" s="79"/>
@@ -8150,7 +8150,7 @@
       <c r="O65" s="60"/>
       <c r="P65" s="61"/>
     </row>
-    <row r="66" spans="2:16" ht="19.5">
+    <row r="66" spans="2:16" ht="20">
       <c r="B66" s="79"/>
       <c r="C66" s="80"/>
       <c r="D66" s="79"/>
@@ -8167,7 +8167,7 @@
       <c r="O66" s="60"/>
       <c r="P66" s="61"/>
     </row>
-    <row r="67" spans="2:16" ht="19.5">
+    <row r="67" spans="2:16" ht="20">
       <c r="B67" s="79"/>
       <c r="C67" s="79"/>
       <c r="D67" s="79"/>
@@ -8184,7 +8184,7 @@
       <c r="O67" s="60"/>
       <c r="P67" s="61"/>
     </row>
-    <row r="68" spans="2:16" ht="19.5">
+    <row r="68" spans="2:16" ht="20">
       <c r="B68" s="79"/>
       <c r="C68" s="80"/>
       <c r="D68" s="79"/>
@@ -8201,7 +8201,7 @@
       <c r="O68" s="60"/>
       <c r="P68" s="61"/>
     </row>
-    <row r="69" spans="2:16" ht="19.5">
+    <row r="69" spans="2:16" ht="20">
       <c r="B69" s="79"/>
       <c r="C69" s="80"/>
       <c r="D69" s="79"/>
@@ -8218,7 +8218,7 @@
       <c r="O69" s="60"/>
       <c r="P69" s="61"/>
     </row>
-    <row r="70" spans="2:16" ht="19.5">
+    <row r="70" spans="2:16" ht="20">
       <c r="B70" s="79"/>
       <c r="C70" s="80"/>
       <c r="D70" s="79"/>
@@ -8235,7 +8235,7 @@
       <c r="O70" s="60"/>
       <c r="P70" s="61"/>
     </row>
-    <row r="71" spans="2:16" ht="20.25" thickBot="1">
+    <row r="71" spans="2:16" ht="20.5" thickBot="1">
       <c r="B71" s="79"/>
       <c r="C71" s="80"/>
       <c r="D71" s="79"/>
@@ -8252,7 +8252,7 @@
       <c r="O71" s="64"/>
       <c r="P71" s="65"/>
     </row>
-    <row r="73" spans="2:16" ht="24">
+    <row r="73" spans="2:16" ht="22.5">
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
       <c r="G73" s="50"/>

--- a/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA026D-55DF-4DC1-9010-586DB54D8B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23FDC18-FBED-430E-9B79-6299FEA8C5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムテスト" sheetId="4" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="246">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="5"/>
@@ -3449,13 +3449,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>確認項目</t>
     <rPh sb="0" eb="4">
       <t>カクニンコウモク</t>
@@ -3473,79 +3466,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>bool PopDecision(uint16_t i_decisionNumber)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>モグラの出現が判定されたとき、TRUEを返す
-それ以外のとき、FALSEを返す</t>
-    <rPh sb="4" eb="6">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>モグラの表示時間を決定する。</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint16_t getRand(uint16_t i_seed)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Visual Studioで単体テストを行う</t>
-    <rPh sb="14" eb="16">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>COUNTIF(I4:I71,"✖")</t>
   </si>
   <si>
     <t>I75/I8</t>
-  </si>
-  <si>
-    <t>uint8_t getPopTime(uint8_t i_level, uint8_t i_time)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ランダムな値を取得する。
-入出力の説明と範囲</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ニュウシュツリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>引数</t>
@@ -3575,35 +3499,6 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>bool
-　モグラの出現判定結果。結果が「出現」ならTRUE、「未出現」ならFALSEが出力される。</t>
-    <rPh sb="10" eb="12">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3780,42 +3675,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>境界値テスト
-　i_timeに取り得る正常範囲内の値を入力した場合、
-　　i_levelがEASY(1)のとき、50(500ms)~200(2,000ms)を返す。
-　　i_levelがNORMAL(2)のとき、20(200ms)~150(1,500ms)を返す。
-　　i_levelがHARD(3)のとき、20(200ms)~100(1,000ms)を返す。
-　　i_levelがそれ以外の場合、0を返す。</t>
-    <rPh sb="0" eb="3">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>i_decisionNumberが0x0000のとき、FALSEを返す。
 i_decisionNumberが0xFFFFのとき、TRUEを返す。
 i_decisionNumberがX(0x0001~0xFFFE)で100回実行した時、TRUEを返した回数が X/乱数の最大値(出現率)の±5% 以内か。(出現率シート参照)</t>
@@ -3860,6 +3719,99 @@
     </rPh>
     <rPh sb="158" eb="160">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint16_t getRand(uint16_t i_seed)
+　ランダムな値を取得する。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint8_t getPopTime(uint8_t i_level,
+　　　　　　　　　uint8_t i_time)
+　モグラの表示時間を決定する。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bool PopDecision(uint16_t i_decisionNumber)
+　モグラの出現が判定されたとき、TRUEを返す
+　それ以外のとき、FALSEを返す</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>i_timeに取り得る正常範囲内の値を入力した場合、
+　i_levelがEASY(1)のとき、50(500ms)~200(2,000ms)を返す。
+　i_levelがNORMAL(2)のとき、20(200ms)~150(1,500ms)を返す。
+　i_levelがHARD(3)のとき、20(200ms)~100(1,000ms)を返す。
+　i_levelがそれ以外の場合、0を返す。</t>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bool
+　モグラの出現判定結果。結果が「出現」なら
+　TRUE、「未出現」ならFALSEが出力される。</t>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3971,7 +3923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4729,26 +4681,26 @@
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="33.08203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="49.58203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="49.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.58203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.58203125" style="2"/>
+    <col min="14" max="14" width="49.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -4762,8 +4714,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.5" thickBot="1"/>
-    <row r="3" spans="1:14" ht="18.5" thickBot="1">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4804,7 +4756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.5" thickBot="1">
+    <row r="4" spans="1:14" ht="20.25" thickBot="1">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -4841,7 +4793,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="36.5" thickBot="1">
+    <row r="5" spans="1:14" ht="38.25" thickBot="1">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4874,7 +4826,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="54.5" thickBot="1">
+    <row r="6" spans="1:14" ht="57" thickBot="1">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4907,7 +4859,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="54.5" thickBot="1">
+    <row r="7" spans="1:14" ht="57" thickBot="1">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4940,7 +4892,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="36.5" thickBot="1">
+    <row r="8" spans="1:14" ht="38.25" thickBot="1">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -4973,7 +4925,7 @@
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="36.5" thickBot="1">
+    <row r="9" spans="1:14" ht="38.25" thickBot="1">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -5010,7 +4962,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="36.5" thickBot="1">
+    <row r="10" spans="1:14" ht="38.25" thickBot="1">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -5043,7 +4995,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="36.5" thickBot="1">
+    <row r="11" spans="1:14" ht="38.25" thickBot="1">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -5076,7 +5028,7 @@
       </c>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="36.5" thickBot="1">
+    <row r="12" spans="1:14" ht="38.25" thickBot="1">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -5113,7 +5065,7 @@
       </c>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" ht="54.5" thickBot="1">
+    <row r="13" spans="1:14" ht="57" thickBot="1">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -5150,7 +5102,7 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="36.5" thickBot="1">
+    <row r="14" spans="1:14" ht="38.25" thickBot="1">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -5183,7 +5135,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="36.5" thickBot="1">
+    <row r="15" spans="1:14" ht="38.25" thickBot="1">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -5216,7 +5168,7 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="36.5" thickBot="1">
+    <row r="16" spans="1:14" ht="38.25" thickBot="1">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -5253,7 +5205,7 @@
       </c>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="2:14" ht="20.5" thickBot="1">
+    <row r="17" spans="2:14" ht="20.25" thickBot="1">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -5290,7 +5242,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:14" ht="36.5" thickBot="1">
+    <row r="18" spans="2:14" ht="38.25" thickBot="1">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -5323,7 +5275,7 @@
       </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" ht="36.5" thickBot="1">
+    <row r="19" spans="2:14" ht="38.25" thickBot="1">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -5356,7 +5308,7 @@
       </c>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" ht="36.5" thickBot="1">
+    <row r="20" spans="2:14" ht="38.25" thickBot="1">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -5389,7 +5341,7 @@
       </c>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="2:14" ht="36.5" thickBot="1">
+    <row r="21" spans="2:14" ht="38.25" thickBot="1">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -5428,7 +5380,7 @@
       </c>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" ht="36.5" thickBot="1">
+    <row r="22" spans="2:14" ht="38.25" thickBot="1">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -5463,7 +5415,7 @@
       </c>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" ht="36.5" thickBot="1">
+    <row r="23" spans="2:14" ht="38.25" thickBot="1">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -5498,7 +5450,7 @@
       </c>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" ht="36.5" thickBot="1">
+    <row r="24" spans="2:14" ht="38.25" thickBot="1">
       <c r="B24" s="6">
         <v>21</v>
       </c>
@@ -5533,7 +5485,7 @@
       </c>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="2:14" ht="20.5" thickBot="1">
+    <row r="25" spans="2:14" ht="20.25" thickBot="1">
       <c r="B25" s="6">
         <v>22</v>
       </c>
@@ -5570,7 +5522,7 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="2:14" ht="36.5" thickBot="1">
+    <row r="26" spans="2:14" ht="38.25" thickBot="1">
       <c r="B26" s="6">
         <v>23</v>
       </c>
@@ -5603,7 +5555,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="2:14" ht="72.5" thickBot="1">
+    <row r="27" spans="2:14" ht="75.75" thickBot="1">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -5636,7 +5588,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" ht="72.5" thickBot="1">
+    <row r="28" spans="2:14" ht="75.75" thickBot="1">
       <c r="B28" s="6">
         <v>25</v>
       </c>
@@ -5669,7 +5621,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" ht="36.5" thickBot="1">
+    <row r="29" spans="2:14" ht="38.25" thickBot="1">
       <c r="B29" s="6">
         <v>26</v>
       </c>
@@ -5702,7 +5654,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" ht="36.5" thickBot="1">
+    <row r="30" spans="2:14" ht="38.25" thickBot="1">
       <c r="B30" s="6">
         <v>27</v>
       </c>
@@ -5735,7 +5687,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" ht="36.5" thickBot="1">
+    <row r="31" spans="2:14" ht="38.25" thickBot="1">
       <c r="B31" s="6">
         <v>28</v>
       </c>
@@ -5768,7 +5720,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" ht="36.5" thickBot="1">
+    <row r="32" spans="2:14" ht="38.25" thickBot="1">
       <c r="B32" s="6">
         <v>29</v>
       </c>
@@ -5801,7 +5753,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" ht="36.5" thickBot="1">
+    <row r="33" spans="2:14" ht="38.25" thickBot="1">
       <c r="B33" s="6">
         <v>30</v>
       </c>
@@ -5834,7 +5786,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" ht="36.5" thickBot="1">
+    <row r="34" spans="2:14" ht="38.25" thickBot="1">
       <c r="B34" s="6">
         <v>31</v>
       </c>
@@ -5867,7 +5819,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" ht="36.5" thickBot="1">
+    <row r="35" spans="2:14" ht="38.25" thickBot="1">
       <c r="B35" s="6">
         <v>32</v>
       </c>
@@ -5900,7 +5852,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" ht="36.5" thickBot="1">
+    <row r="36" spans="2:14" ht="38.25" thickBot="1">
       <c r="B36" s="6">
         <v>33</v>
       </c>
@@ -5933,7 +5885,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" ht="36.5" thickBot="1">
+    <row r="37" spans="2:14" ht="38.25" thickBot="1">
       <c r="B37" s="6">
         <v>34</v>
       </c>
@@ -5966,7 +5918,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" ht="36.5" thickBot="1">
+    <row r="38" spans="2:14" ht="38.25" thickBot="1">
       <c r="B38" s="6">
         <v>35</v>
       </c>
@@ -5999,7 +5951,7 @@
       </c>
       <c r="N38" s="40"/>
     </row>
-    <row r="39" spans="2:14" ht="36.5" thickBot="1">
+    <row r="39" spans="2:14" ht="38.25" thickBot="1">
       <c r="B39" s="6">
         <v>36</v>
       </c>
@@ -6036,7 +5988,7 @@
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" ht="36.5" thickBot="1">
+    <row r="40" spans="2:14" ht="38.25" thickBot="1">
       <c r="B40" s="6">
         <v>37</v>
       </c>
@@ -6069,7 +6021,7 @@
       </c>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" ht="36.5" thickBot="1">
+    <row r="41" spans="2:14" ht="38.25" thickBot="1">
       <c r="B41" s="6">
         <v>38</v>
       </c>
@@ -6102,7 +6054,7 @@
       </c>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" ht="36.5" thickBot="1">
+    <row r="42" spans="2:14" ht="38.25" thickBot="1">
       <c r="B42" s="6">
         <v>39</v>
       </c>
@@ -6135,7 +6087,7 @@
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:14" ht="36.5" thickBot="1">
+    <row r="43" spans="2:14" ht="38.25" thickBot="1">
       <c r="B43" s="6">
         <v>40</v>
       </c>
@@ -6168,7 +6120,7 @@
       </c>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" ht="36.5" thickBot="1">
+    <row r="44" spans="2:14" ht="38.25" thickBot="1">
       <c r="B44" s="6">
         <v>41</v>
       </c>
@@ -6201,7 +6153,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:14" ht="36.5" thickBot="1">
+    <row r="45" spans="2:14" ht="38.25" thickBot="1">
       <c r="B45" s="6">
         <v>42</v>
       </c>
@@ -6234,7 +6186,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" ht="36.5" thickBot="1">
+    <row r="46" spans="2:14" ht="38.25" thickBot="1">
       <c r="B46" s="6">
         <v>43</v>
       </c>
@@ -6267,7 +6219,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" ht="36.5" thickBot="1">
+    <row r="47" spans="2:14" ht="38.25" thickBot="1">
       <c r="B47" s="6">
         <v>44</v>
       </c>
@@ -6300,7 +6252,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:14" ht="36.5" thickBot="1">
+    <row r="48" spans="2:14" ht="38.25" thickBot="1">
       <c r="B48" s="6">
         <v>45</v>
       </c>
@@ -6333,7 +6285,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="2:14" ht="36.5" thickBot="1">
+    <row r="49" spans="2:14" ht="38.25" thickBot="1">
       <c r="B49" s="6">
         <v>46</v>
       </c>
@@ -6366,7 +6318,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="2:14" ht="36.5" thickBot="1">
+    <row r="50" spans="2:14" ht="38.25" thickBot="1">
       <c r="B50" s="6">
         <v>47</v>
       </c>
@@ -6399,7 +6351,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="2:14" ht="36.5" thickBot="1">
+    <row r="51" spans="2:14" ht="38.25" thickBot="1">
       <c r="B51" s="6">
         <v>48</v>
       </c>
@@ -6432,7 +6384,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="2:14" ht="36.5" thickBot="1">
+    <row r="52" spans="2:14" ht="38.25" thickBot="1">
       <c r="B52" s="6">
         <v>49</v>
       </c>
@@ -6465,7 +6417,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="2:14" ht="36.5" thickBot="1">
+    <row r="53" spans="2:14" ht="38.25" thickBot="1">
       <c r="B53" s="6">
         <v>50</v>
       </c>
@@ -6498,7 +6450,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="2:14" ht="36.5" thickBot="1">
+    <row r="54" spans="2:14" ht="38.25" thickBot="1">
       <c r="B54" s="6">
         <v>51</v>
       </c>
@@ -6531,7 +6483,7 @@
       </c>
       <c r="N54" s="24"/>
     </row>
-    <row r="55" spans="2:14" ht="36.5" thickBot="1">
+    <row r="55" spans="2:14" ht="38.25" thickBot="1">
       <c r="B55" s="6">
         <v>52</v>
       </c>
@@ -6564,7 +6516,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="54.5" thickBot="1">
+    <row r="56" spans="2:14" ht="57" thickBot="1">
       <c r="B56" s="6">
         <v>53</v>
       </c>
@@ -6597,7 +6549,7 @@
       </c>
       <c r="N56" s="40"/>
     </row>
-    <row r="57" spans="2:14" ht="36.5" thickBot="1">
+    <row r="57" spans="2:14" ht="38.25" thickBot="1">
       <c r="B57" s="6">
         <v>54</v>
       </c>
@@ -6634,7 +6586,7 @@
       </c>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="2:14" ht="36.5" thickBot="1">
+    <row r="58" spans="2:14" ht="38.25" thickBot="1">
       <c r="B58" s="6">
         <v>55</v>
       </c>
@@ -6667,7 +6619,7 @@
       </c>
       <c r="N58" s="24"/>
     </row>
-    <row r="59" spans="2:14" ht="36.5" thickBot="1">
+    <row r="59" spans="2:14" ht="38.25" thickBot="1">
       <c r="B59" s="6">
         <v>56</v>
       </c>
@@ -6704,7 +6656,7 @@
       </c>
       <c r="N59" s="46"/>
     </row>
-    <row r="60" spans="2:14" ht="36.5" thickBot="1">
+    <row r="60" spans="2:14" ht="38.25" thickBot="1">
       <c r="B60" s="6">
         <v>57</v>
       </c>
@@ -6741,7 +6693,7 @@
       </c>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="2:14" ht="36.5" thickBot="1">
+    <row r="61" spans="2:14" ht="38.25" thickBot="1">
       <c r="B61" s="6">
         <v>58</v>
       </c>
@@ -6774,7 +6726,7 @@
       </c>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="2:14" ht="20.5" thickBot="1">
+    <row r="62" spans="2:14" ht="20.25" thickBot="1">
       <c r="B62" s="6">
         <v>59</v>
       </c>
@@ -6811,7 +6763,7 @@
       </c>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="2:14" ht="20.5" thickBot="1">
+    <row r="63" spans="2:14" ht="20.25" thickBot="1">
       <c r="B63" s="6">
         <v>60</v>
       </c>
@@ -6848,7 +6800,7 @@
       </c>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="2:14" ht="20.5" thickBot="1">
+    <row r="64" spans="2:14" ht="20.25" thickBot="1">
       <c r="B64" s="6">
         <v>61</v>
       </c>
@@ -6885,7 +6837,7 @@
       </c>
       <c r="N64" s="30"/>
     </row>
-    <row r="66" spans="2:13" ht="22.5">
+    <row r="66" spans="2:13" ht="24">
       <c r="B66" s="49" t="s">
         <v>220</v>
       </c>
@@ -6964,49 +6916,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3B0F4-38B8-4D50-B22F-81976C94C56C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.75" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.58203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="49.58203125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="49.625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.25" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49.58203125" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.58203125" style="2"/>
+    <col min="16" max="16" width="49.625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>233</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D1" s="69"/>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.5" thickBot="1"/>
-    <row r="3" spans="1:16" ht="20.5" thickBot="1">
+    <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:16" ht="20.25" thickBot="1">
       <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
@@ -7014,16 +6964,16 @@
         <v>224</v>
       </c>
       <c r="D3" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="57" t="s">
         <v>226</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>227</v>
       </c>
       <c r="H3" s="57" t="s">
         <v>7</v>
@@ -7053,24 +7003,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="60.5" thickBot="1">
+    <row r="4" spans="1:16" ht="59.25" thickBot="1">
       <c r="B4" s="70">
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>242</v>
-      </c>
       <c r="F4" s="87" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H4" s="62"/>
       <c r="I4" s="63"/>
@@ -7082,24 +7032,24 @@
       <c r="O4" s="60"/>
       <c r="P4" s="61"/>
     </row>
-    <row r="5" spans="1:16" ht="140.5" thickBot="1">
+    <row r="5" spans="1:16" ht="137.25" thickBot="1">
       <c r="B5" s="70">
         <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E5" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="66" t="s">
-        <v>246</v>
-      </c>
       <c r="G5" s="62" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H5" s="62"/>
       <c r="I5" s="63"/>
@@ -7111,24 +7061,24 @@
       <c r="O5" s="60"/>
       <c r="P5" s="61"/>
     </row>
-    <row r="6" spans="1:16" ht="80.5" thickBot="1">
+    <row r="6" spans="1:16" ht="78.75" thickBot="1">
       <c r="B6" s="73">
         <v>3</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="74"/>
@@ -7140,7 +7090,7 @@
       <c r="O6" s="60"/>
       <c r="P6" s="61"/>
     </row>
-    <row r="7" spans="1:16" ht="20">
+    <row r="7" spans="1:16" ht="19.5">
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -7157,7 +7107,7 @@
       <c r="O7" s="60"/>
       <c r="P7" s="61"/>
     </row>
-    <row r="8" spans="1:16" ht="20">
+    <row r="8" spans="1:16" ht="19.5">
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
       <c r="D8" s="79"/>
@@ -7177,7 +7127,7 @@
       <c r="O8" s="60"/>
       <c r="P8" s="61"/>
     </row>
-    <row r="9" spans="1:16" ht="40">
+    <row r="9" spans="1:16" ht="39">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
@@ -7188,7 +7138,7 @@
       <c r="I9" s="82"/>
       <c r="J9" s="79"/>
       <c r="K9" s="83" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="71"/>
@@ -7196,7 +7146,7 @@
       <c r="O9" s="60"/>
       <c r="P9" s="61"/>
     </row>
-    <row r="10" spans="1:16" ht="20">
+    <row r="10" spans="1:16" ht="19.5">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
@@ -7207,7 +7157,7 @@
       <c r="I10" s="82"/>
       <c r="J10" s="79"/>
       <c r="K10" s="83" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="71"/>
@@ -7215,7 +7165,7 @@
       <c r="O10" s="60"/>
       <c r="P10" s="61"/>
     </row>
-    <row r="11" spans="1:16" ht="20">
+    <row r="11" spans="1:16" ht="19.5">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
@@ -7232,7 +7182,7 @@
       <c r="O11" s="60"/>
       <c r="P11" s="61"/>
     </row>
-    <row r="12" spans="1:16" ht="20">
+    <row r="12" spans="1:16" ht="19.5">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="79"/>
@@ -7249,7 +7199,7 @@
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
     </row>
-    <row r="13" spans="1:16" ht="20">
+    <row r="13" spans="1:16" ht="19.5">
       <c r="B13" s="79"/>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
@@ -7266,7 +7216,7 @@
       <c r="O13" s="60"/>
       <c r="P13" s="61"/>
     </row>
-    <row r="14" spans="1:16" ht="20">
+    <row r="14" spans="1:16" ht="19.5">
       <c r="B14" s="79"/>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
@@ -7283,7 +7233,7 @@
       <c r="O14" s="60"/>
       <c r="P14" s="61"/>
     </row>
-    <row r="15" spans="1:16" ht="20">
+    <row r="15" spans="1:16" ht="19.5">
       <c r="B15" s="79"/>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
@@ -7300,7 +7250,7 @@
       <c r="O15" s="60"/>
       <c r="P15" s="61"/>
     </row>
-    <row r="16" spans="1:16" ht="20">
+    <row r="16" spans="1:16" ht="19.5">
       <c r="B16" s="79"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -7317,7 +7267,7 @@
       <c r="O16" s="60"/>
       <c r="P16" s="61"/>
     </row>
-    <row r="17" spans="2:16" ht="20">
+    <row r="17" spans="2:16" ht="19.5">
       <c r="B17" s="79"/>
       <c r="C17" s="84"/>
       <c r="D17" s="79"/>
@@ -7334,7 +7284,7 @@
       <c r="O17" s="60"/>
       <c r="P17" s="61"/>
     </row>
-    <row r="18" spans="2:16" ht="20">
+    <row r="18" spans="2:16" ht="19.5">
       <c r="B18" s="79"/>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
@@ -7351,7 +7301,7 @@
       <c r="O18" s="60"/>
       <c r="P18" s="61"/>
     </row>
-    <row r="19" spans="2:16" ht="20">
+    <row r="19" spans="2:16" ht="19.5">
       <c r="B19" s="79"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
@@ -7368,7 +7318,7 @@
       <c r="O19" s="60"/>
       <c r="P19" s="61"/>
     </row>
-    <row r="20" spans="2:16" ht="20">
+    <row r="20" spans="2:16" ht="19.5">
       <c r="B20" s="79"/>
       <c r="C20" s="84"/>
       <c r="D20" s="84"/>
@@ -7385,7 +7335,7 @@
       <c r="O20" s="60"/>
       <c r="P20" s="61"/>
     </row>
-    <row r="21" spans="2:16" ht="20">
+    <row r="21" spans="2:16" ht="19.5">
       <c r="B21" s="79"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
@@ -7402,7 +7352,7 @@
       <c r="O21" s="60"/>
       <c r="P21" s="56"/>
     </row>
-    <row r="22" spans="2:16" ht="20">
+    <row r="22" spans="2:16" ht="19.5">
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
       <c r="D22" s="79"/>
@@ -7419,7 +7369,7 @@
       <c r="O22" s="60"/>
       <c r="P22" s="61"/>
     </row>
-    <row r="23" spans="2:16" ht="20">
+    <row r="23" spans="2:16" ht="19.5">
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
       <c r="D23" s="79"/>
@@ -7436,7 +7386,7 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
     </row>
-    <row r="24" spans="2:16" ht="20">
+    <row r="24" spans="2:16" ht="19.5">
       <c r="B24" s="79"/>
       <c r="C24" s="80"/>
       <c r="D24" s="79"/>
@@ -7453,7 +7403,7 @@
       <c r="O24" s="60"/>
       <c r="P24" s="61"/>
     </row>
-    <row r="25" spans="2:16" ht="20">
+    <row r="25" spans="2:16" ht="19.5">
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="79"/>
@@ -7470,7 +7420,7 @@
       <c r="O25" s="60"/>
       <c r="P25" s="61"/>
     </row>
-    <row r="26" spans="2:16" ht="20">
+    <row r="26" spans="2:16" ht="19.5">
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
       <c r="D26" s="79"/>
@@ -7487,7 +7437,7 @@
       <c r="O26" s="60"/>
       <c r="P26" s="61"/>
     </row>
-    <row r="27" spans="2:16" ht="20">
+    <row r="27" spans="2:16" ht="19.5">
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="79"/>
@@ -7504,7 +7454,7 @@
       <c r="O27" s="60"/>
       <c r="P27" s="61"/>
     </row>
-    <row r="28" spans="2:16" ht="39.65" customHeight="1">
+    <row r="28" spans="2:16" ht="39.6" customHeight="1">
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
       <c r="D28" s="79"/>
@@ -7521,7 +7471,7 @@
       <c r="O28" s="60"/>
       <c r="P28" s="61"/>
     </row>
-    <row r="29" spans="2:16" ht="20">
+    <row r="29" spans="2:16" ht="19.5">
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
       <c r="D29" s="79"/>
@@ -7538,7 +7488,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="61"/>
     </row>
-    <row r="30" spans="2:16" ht="20">
+    <row r="30" spans="2:16" ht="19.5">
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
       <c r="D30" s="79"/>
@@ -7555,7 +7505,7 @@
       <c r="O30" s="60"/>
       <c r="P30" s="61"/>
     </row>
-    <row r="31" spans="2:16" ht="20">
+    <row r="31" spans="2:16" ht="19.5">
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="79"/>
@@ -7572,7 +7522,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="61"/>
     </row>
-    <row r="32" spans="2:16" ht="20">
+    <row r="32" spans="2:16" ht="19.5">
       <c r="B32" s="79"/>
       <c r="C32" s="80"/>
       <c r="D32" s="79"/>
@@ -7589,7 +7539,7 @@
       <c r="O32" s="60"/>
       <c r="P32" s="61"/>
     </row>
-    <row r="33" spans="2:16" ht="20">
+    <row r="33" spans="2:16" ht="19.5">
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
       <c r="D33" s="79"/>
@@ -7606,7 +7556,7 @@
       <c r="O33" s="60"/>
       <c r="P33" s="61"/>
     </row>
-    <row r="34" spans="2:16" ht="20">
+    <row r="34" spans="2:16" ht="19.5">
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="79"/>
@@ -7623,7 +7573,7 @@
       <c r="O34" s="60"/>
       <c r="P34" s="61"/>
     </row>
-    <row r="35" spans="2:16" ht="20">
+    <row r="35" spans="2:16" ht="19.5">
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
       <c r="D35" s="79"/>
@@ -7640,7 +7590,7 @@
       <c r="O35" s="60"/>
       <c r="P35" s="61"/>
     </row>
-    <row r="36" spans="2:16" ht="20">
+    <row r="36" spans="2:16" ht="19.5">
       <c r="B36" s="79"/>
       <c r="C36" s="80"/>
       <c r="D36" s="79"/>
@@ -7657,7 +7607,7 @@
       <c r="O36" s="60"/>
       <c r="P36" s="61"/>
     </row>
-    <row r="37" spans="2:16" ht="20">
+    <row r="37" spans="2:16" ht="19.5">
       <c r="B37" s="79"/>
       <c r="C37" s="80"/>
       <c r="D37" s="79"/>
@@ -7674,7 +7624,7 @@
       <c r="O37" s="60"/>
       <c r="P37" s="61"/>
     </row>
-    <row r="38" spans="2:16" ht="20">
+    <row r="38" spans="2:16" ht="19.5">
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
       <c r="D38" s="79"/>
@@ -7691,7 +7641,7 @@
       <c r="O38" s="60"/>
       <c r="P38" s="61"/>
     </row>
-    <row r="39" spans="2:16" ht="20">
+    <row r="39" spans="2:16" ht="19.5">
       <c r="B39" s="79"/>
       <c r="C39" s="80"/>
       <c r="D39" s="79"/>
@@ -7708,7 +7658,7 @@
       <c r="O39" s="60"/>
       <c r="P39" s="61"/>
     </row>
-    <row r="40" spans="2:16" ht="20">
+    <row r="40" spans="2:16" ht="19.5">
       <c r="B40" s="79"/>
       <c r="C40" s="80"/>
       <c r="D40" s="79"/>
@@ -7725,7 +7675,7 @@
       <c r="O40" s="60"/>
       <c r="P40" s="61"/>
     </row>
-    <row r="41" spans="2:16" ht="20">
+    <row r="41" spans="2:16" ht="19.5">
       <c r="B41" s="79"/>
       <c r="C41" s="80"/>
       <c r="D41" s="79"/>
@@ -7742,7 +7692,7 @@
       <c r="O41" s="60"/>
       <c r="P41" s="61"/>
     </row>
-    <row r="42" spans="2:16" ht="20">
+    <row r="42" spans="2:16" ht="19.5">
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
       <c r="D42" s="79"/>
@@ -7759,7 +7709,7 @@
       <c r="O42" s="60"/>
       <c r="P42" s="61"/>
     </row>
-    <row r="43" spans="2:16" ht="20">
+    <row r="43" spans="2:16" ht="19.5">
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
       <c r="D43" s="79"/>
@@ -7776,7 +7726,7 @@
       <c r="O43" s="60"/>
       <c r="P43" s="61"/>
     </row>
-    <row r="44" spans="2:16" ht="20">
+    <row r="44" spans="2:16" ht="19.5">
       <c r="B44" s="79"/>
       <c r="C44" s="80"/>
       <c r="D44" s="79"/>
@@ -7793,7 +7743,7 @@
       <c r="O44" s="60"/>
       <c r="P44" s="61"/>
     </row>
-    <row r="45" spans="2:16" ht="20">
+    <row r="45" spans="2:16" ht="19.5">
       <c r="B45" s="79"/>
       <c r="C45" s="80"/>
       <c r="D45" s="79"/>
@@ -7810,7 +7760,7 @@
       <c r="O45" s="60"/>
       <c r="P45" s="61"/>
     </row>
-    <row r="46" spans="2:16" ht="20">
+    <row r="46" spans="2:16" ht="19.5">
       <c r="B46" s="79"/>
       <c r="C46" s="80"/>
       <c r="D46" s="79"/>
@@ -7827,7 +7777,7 @@
       <c r="O46" s="60"/>
       <c r="P46" s="61"/>
     </row>
-    <row r="47" spans="2:16" ht="20">
+    <row r="47" spans="2:16" ht="19.5">
       <c r="B47" s="79"/>
       <c r="C47" s="80"/>
       <c r="D47" s="79"/>
@@ -7844,7 +7794,7 @@
       <c r="O47" s="60"/>
       <c r="P47" s="61"/>
     </row>
-    <row r="48" spans="2:16" ht="20">
+    <row r="48" spans="2:16" ht="19.5">
       <c r="B48" s="79"/>
       <c r="C48" s="80"/>
       <c r="D48" s="79"/>
@@ -7861,7 +7811,7 @@
       <c r="O48" s="60"/>
       <c r="P48" s="61"/>
     </row>
-    <row r="49" spans="2:16" ht="20">
+    <row r="49" spans="2:16" ht="19.5">
       <c r="B49" s="79"/>
       <c r="C49" s="80"/>
       <c r="D49" s="79"/>
@@ -7878,7 +7828,7 @@
       <c r="O49" s="60"/>
       <c r="P49" s="61"/>
     </row>
-    <row r="50" spans="2:16" ht="20">
+    <row r="50" spans="2:16" ht="19.5">
       <c r="B50" s="79"/>
       <c r="C50" s="80"/>
       <c r="D50" s="79"/>
@@ -7895,7 +7845,7 @@
       <c r="O50" s="60"/>
       <c r="P50" s="61"/>
     </row>
-    <row r="51" spans="2:16" ht="20">
+    <row r="51" spans="2:16" ht="19.5">
       <c r="B51" s="79"/>
       <c r="C51" s="80"/>
       <c r="D51" s="79"/>
@@ -7912,7 +7862,7 @@
       <c r="O51" s="60"/>
       <c r="P51" s="61"/>
     </row>
-    <row r="52" spans="2:16" ht="20">
+    <row r="52" spans="2:16" ht="19.5">
       <c r="B52" s="79"/>
       <c r="C52" s="80"/>
       <c r="D52" s="79"/>
@@ -7929,7 +7879,7 @@
       <c r="O52" s="60"/>
       <c r="P52" s="61"/>
     </row>
-    <row r="53" spans="2:16" ht="20">
+    <row r="53" spans="2:16" ht="19.5">
       <c r="B53" s="79"/>
       <c r="C53" s="80"/>
       <c r="D53" s="79"/>
@@ -7946,7 +7896,7 @@
       <c r="O53" s="60"/>
       <c r="P53" s="61"/>
     </row>
-    <row r="54" spans="2:16" ht="20">
+    <row r="54" spans="2:16" ht="19.5">
       <c r="B54" s="79"/>
       <c r="C54" s="80"/>
       <c r="D54" s="79"/>
@@ -7963,7 +7913,7 @@
       <c r="O54" s="60"/>
       <c r="P54" s="61"/>
     </row>
-    <row r="55" spans="2:16" ht="20">
+    <row r="55" spans="2:16" ht="19.5">
       <c r="B55" s="79"/>
       <c r="C55" s="80"/>
       <c r="D55" s="79"/>
@@ -7980,7 +7930,7 @@
       <c r="O55" s="60"/>
       <c r="P55" s="61"/>
     </row>
-    <row r="56" spans="2:16" ht="20">
+    <row r="56" spans="2:16" ht="19.5">
       <c r="B56" s="79"/>
       <c r="C56" s="80"/>
       <c r="D56" s="79"/>
@@ -7997,7 +7947,7 @@
       <c r="O56" s="60"/>
       <c r="P56" s="61"/>
     </row>
-    <row r="57" spans="2:16" ht="20">
+    <row r="57" spans="2:16" ht="19.5">
       <c r="B57" s="79"/>
       <c r="C57" s="80"/>
       <c r="D57" s="79"/>
@@ -8014,7 +7964,7 @@
       <c r="O57" s="60"/>
       <c r="P57" s="61"/>
     </row>
-    <row r="58" spans="2:16" ht="20">
+    <row r="58" spans="2:16" ht="19.5">
       <c r="B58" s="79"/>
       <c r="C58" s="80"/>
       <c r="D58" s="79"/>
@@ -8031,7 +7981,7 @@
       <c r="O58" s="60"/>
       <c r="P58" s="61"/>
     </row>
-    <row r="59" spans="2:16" ht="20">
+    <row r="59" spans="2:16" ht="19.5">
       <c r="B59" s="79"/>
       <c r="C59" s="80"/>
       <c r="D59" s="79"/>
@@ -8048,7 +7998,7 @@
       <c r="O59" s="60"/>
       <c r="P59" s="61"/>
     </row>
-    <row r="60" spans="2:16" ht="20">
+    <row r="60" spans="2:16" ht="19.5">
       <c r="B60" s="79"/>
       <c r="C60" s="80"/>
       <c r="D60" s="79"/>
@@ -8065,7 +8015,7 @@
       <c r="O60" s="60"/>
       <c r="P60" s="61"/>
     </row>
-    <row r="61" spans="2:16" ht="20">
+    <row r="61" spans="2:16" ht="19.5">
       <c r="B61" s="79"/>
       <c r="C61" s="80"/>
       <c r="D61" s="79"/>
@@ -8082,7 +8032,7 @@
       <c r="O61" s="60"/>
       <c r="P61" s="61"/>
     </row>
-    <row r="62" spans="2:16" ht="20">
+    <row r="62" spans="2:16" ht="19.5">
       <c r="B62" s="79"/>
       <c r="C62" s="80"/>
       <c r="D62" s="79"/>
@@ -8099,7 +8049,7 @@
       <c r="O62" s="60"/>
       <c r="P62" s="61"/>
     </row>
-    <row r="63" spans="2:16" ht="20">
+    <row r="63" spans="2:16" ht="19.5">
       <c r="B63" s="79"/>
       <c r="C63" s="80"/>
       <c r="D63" s="79"/>
@@ -8116,7 +8066,7 @@
       <c r="O63" s="60"/>
       <c r="P63" s="61"/>
     </row>
-    <row r="64" spans="2:16" ht="20">
+    <row r="64" spans="2:16" ht="19.5">
       <c r="B64" s="79"/>
       <c r="C64" s="79"/>
       <c r="D64" s="79"/>
@@ -8133,7 +8083,7 @@
       <c r="O64" s="60"/>
       <c r="P64" s="61"/>
     </row>
-    <row r="65" spans="2:16" ht="20">
+    <row r="65" spans="2:16" ht="19.5">
       <c r="B65" s="79"/>
       <c r="C65" s="80"/>
       <c r="D65" s="79"/>
@@ -8150,7 +8100,7 @@
       <c r="O65" s="60"/>
       <c r="P65" s="61"/>
     </row>
-    <row r="66" spans="2:16" ht="20">
+    <row r="66" spans="2:16" ht="19.5">
       <c r="B66" s="79"/>
       <c r="C66" s="80"/>
       <c r="D66" s="79"/>
@@ -8167,7 +8117,7 @@
       <c r="O66" s="60"/>
       <c r="P66" s="61"/>
     </row>
-    <row r="67" spans="2:16" ht="20">
+    <row r="67" spans="2:16" ht="19.5">
       <c r="B67" s="79"/>
       <c r="C67" s="79"/>
       <c r="D67" s="79"/>
@@ -8184,7 +8134,7 @@
       <c r="O67" s="60"/>
       <c r="P67" s="61"/>
     </row>
-    <row r="68" spans="2:16" ht="20">
+    <row r="68" spans="2:16" ht="19.5">
       <c r="B68" s="79"/>
       <c r="C68" s="80"/>
       <c r="D68" s="79"/>
@@ -8201,7 +8151,7 @@
       <c r="O68" s="60"/>
       <c r="P68" s="61"/>
     </row>
-    <row r="69" spans="2:16" ht="20">
+    <row r="69" spans="2:16" ht="19.5">
       <c r="B69" s="79"/>
       <c r="C69" s="80"/>
       <c r="D69" s="79"/>
@@ -8218,7 +8168,7 @@
       <c r="O69" s="60"/>
       <c r="P69" s="61"/>
     </row>
-    <row r="70" spans="2:16" ht="20">
+    <row r="70" spans="2:16" ht="19.5">
       <c r="B70" s="79"/>
       <c r="C70" s="80"/>
       <c r="D70" s="79"/>
@@ -8235,7 +8185,7 @@
       <c r="O70" s="60"/>
       <c r="P70" s="61"/>
     </row>
-    <row r="71" spans="2:16" ht="20.5" thickBot="1">
+    <row r="71" spans="2:16" ht="20.25" thickBot="1">
       <c r="B71" s="79"/>
       <c r="C71" s="80"/>
       <c r="D71" s="79"/>
@@ -8252,7 +8202,7 @@
       <c r="O71" s="64"/>
       <c r="P71" s="65"/>
     </row>
-    <row r="73" spans="2:16" ht="22.5">
+    <row r="73" spans="2:16" ht="24">
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
       <c r="G73" s="50"/>

--- a/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23FDC18-FBED-430E-9B79-6299FEA8C5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508499F-6BCC-422C-ABC1-C7B4508B9529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="254">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="5"/>
@@ -3449,13 +3449,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>確認項目</t>
-    <rPh sb="0" eb="4">
-      <t>カクニンコウモク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>モグラ叩き単体テスト</t>
     <rPh sb="3" eb="4">
       <t>タタ</t>
@@ -3485,161 +3478,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint16_t
-　16bitの乱数。0x0000 ~ 0xFFFF の値を返す。</t>
-    <rPh sb="16" eb="18">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint16_t i_seed
-　乱数を生成するためのシード値
-　取り得る値は、0x0000 ~ 0xFFFF までの符号なし16bit整数。</t>
-    <rPh sb="17" eb="19">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>セイスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint8_t i_level
-　ゲームの難易度。
-　取り得る値は、Enum型のEASY、NORMAL、HARDの 0 ~ 2 までの
-　符号なし8bit整数。
-uint8_t i_time
-　ゲームの残り時間。
-　取り得る値は、60 ~ 0までの符号なし8bit整数値。</t>
-    <rPh sb="21" eb="24">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint16_t i_decisionNumber
-　モグラの出現確率テーブル（PopMoleTable）から
-　残り時間に対応した確率を取り出したもの。
-　取り得る値は、0x0000 ~ 0xFFFF までの符号なし16bit整数。</t>
-    <rPh sb="31" eb="33">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>出力される戻り値が、0x0000 ~ 0xFFFFの間か。</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アイダ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3720,23 +3558,6 @@
     <rPh sb="158" eb="160">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint16_t getRand(uint16_t i_seed)
-　ランダムな値を取得する。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint8_t getPopTime(uint8_t i_level,
-　　　　　　　　　uint8_t i_time)
-　モグラの表示時間を決定する。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>bool PopDecision(uint16_t i_decisionNumber)
-　モグラの出現が判定されたとき、TRUEを返す
-　それ以外のとき、FALSEを返す</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3812,6 +3633,712 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト手順</t>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint8_t i_level
+　ゲームの難易度。
+　取り得る値は、Enum型のEASY、NORMAL、HARDの
+　0 ~ 2 までの符号なし8bit整数。
+uint8_t i_time
+　ゲームの残り時間。
+　取り得る値は、60 ~ 0までの符号なし8bit整数値。</t>
+    <rPh sb="21" eb="24">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint8_t getPopTime(uint8_t i_level,
+　　　　　　　　　　uint8_t i_time)
+　モグラの表示時間を決定する。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>void
+　なし</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint16_t
+　16bitの乱数。別で設定されるシード値に従い、
+　関数が呼ばれる度に
+　0x0000 ~ 0xFFFF の値をランダムに返す。</t>
+    <rPh sb="16" eb="18">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint16_t GetRand()
+　ランダムな値を取得する。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>関数から出力される戻り値が、0x0000 ~ 0xFFFFの間。</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したGetRand()関数と引数をシード値として設定するSetRandSeed()関数をVisual Studio上で呼び出せるようにし、
+main関数にて、次の順で行う動作を10回繰り返す。
+　1. 現在の時間を引数に取ったSetRandSeed()を使い、シード値を変更する。
+　2. GetRandSeed()を1回実行する。
+　3. 出力された乱数と期待値を比較し、一致しなければ、エラーを出して終了する。
+　4. GetRandSeed()を1000回実行するまで、2~3を繰り返す。
+最後までエラーを出さずに処理を行い、正常終了すればテスト成功とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様通りの値を出力するか</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>境界値テスト
+（引数i_time）</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>境界値テスト
+（引数i_level)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したgetPopTime()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う
+（正常値テスト)
+main関数にて、次の動作を行う。
+　1. 引数i_levelの値を0に設定する。
+　2. 引数i_timeを60, 0,  30のそれぞれに設定した場合の出力が期待値と一致するか比較する。
+（異常値テスト）
+main関数にて、次の動作を行う。
+　1. 引数i_levelの値を0に設定する。
+　2. 引数i_timeを61,255のそれぞれに設定した場合の出力が期待値と一致するか比較する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>イジョウチ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したgetPopTime()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う
+（正常値テスト)
+main関数にて、次の動作を行う。
+　1. 引数i_timeの値を60に設定する。
+　2. 引数i_levelを0,1,2のそれぞれに設定した場合の出力が期待値と一致するか比較する。
+（異常値テスト）
+main関数にて、次の動作を行う。
+　1. 引数i_timeの値を60に設定する。
+　2. 引数i_levelを3,255のそれぞれに設定した場合の出力が期待値と一致するか比較する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="156" eb="159">
+      <t>イジョウチ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したPopDecision()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う。
+（正常値テスト）
+main関数にて、次の動作を行う。
+　1. 引数i_devisionNumberの値を0x0000, 0x7FFF, 0xFFFFのそれそれに設定した場合の出力が、期待値と一致するか比較する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>i_levelに取り得る正常値範囲内の値を入力した場合、
+　i_timeが60 ~ 0のとき、i_levelに対応した値を返す。
+i_timeが正常値範囲以外の場合、0を返す。</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bool PopDecision(
+　　　uint16_t i_decisionNumber)
+　モグラの出現が判定されたとき、
+　TRUEを返す
+　それ以外のとき、FALSEを返す</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint16_t i_decisionNumber
+　モグラの出現確率テーブル（PopMoleTable）から
+　残り時間に対応した確率を取り出したもの。
+　取り得る値は、0x0000 ~ 0xFFFF までの
+　符号なし16bit整数。</t>
+    <rPh sb="31" eb="33">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4128,7 +4655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -4389,6 +4916,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6916,47 +7464,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3B0F4-38B8-4D50-B22F-81976C94C56C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.75" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="49.625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="49.625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="2"/>
+    <col min="3" max="3" width="36.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.75" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="49.625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="49.625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="69"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:16" ht="20.25" thickBot="1">
+    <row r="2" spans="1:17" ht="19.5" thickBot="1"/>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1">
       <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
@@ -6964,1194 +7514,1274 @@
         <v>224</v>
       </c>
       <c r="D3" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="F3" s="57" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="K3" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="L3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="M3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="N3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="O3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="P3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="Q3" s="58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="59.25" thickBot="1">
+    <row r="4" spans="1:17" ht="156.75" thickBot="1">
       <c r="B4" s="70">
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F4" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-    </row>
-    <row r="5" spans="1:16" ht="137.25" thickBot="1">
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" ht="176.25" thickBot="1">
       <c r="B5" s="70">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+    </row>
+    <row r="6" spans="1:17" ht="176.25" thickBot="1">
+      <c r="B6" s="73"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
+    </row>
+    <row r="7" spans="1:17" ht="117.75" thickBot="1">
+      <c r="B7" s="73">
+        <v>3</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="61"/>
-    </row>
-    <row r="6" spans="1:16" ht="78.75" thickBot="1">
-      <c r="B6" s="73">
-        <v>3</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-    </row>
-    <row r="7" spans="1:16" ht="19.5">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="61"/>
-    </row>
-    <row r="8" spans="1:16" ht="19.5">
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="3">
-        <f>COUNTA(K4:K6)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="61"/>
-    </row>
-    <row r="9" spans="1:16" ht="39">
+      <c r="G7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
+    </row>
+    <row r="8" spans="1:17" ht="19.5">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
+    </row>
+    <row r="9" spans="1:17" ht="19.5">
       <c r="B9" s="79"/>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
       <c r="F9" s="79"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="L9" s="84"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5">
+      <c r="G9" s="79"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="3">
+        <f>COUNTA(L4:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="84"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+    </row>
+    <row r="10" spans="1:17" ht="39">
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="83" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="61"/>
-    </row>
-    <row r="11" spans="1:16" ht="19.5">
+      <c r="G10" s="79"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="M10" s="84"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5">
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
-    </row>
-    <row r="12" spans="1:16" ht="19.5">
+      <c r="G11" s="79"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="84"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="1:17" ht="19.5">
       <c r="B12" s="79"/>
       <c r="C12" s="80"/>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
-    </row>
-    <row r="13" spans="1:16" ht="19.5">
+      <c r="H12" s="81"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="61"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.5">
       <c r="B13" s="79"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="79"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
-    </row>
-    <row r="14" spans="1:16" ht="19.5">
+      <c r="I13" s="79"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+    </row>
+    <row r="14" spans="1:17" ht="19.5">
       <c r="B14" s="79"/>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="61"/>
-    </row>
-    <row r="15" spans="1:16" ht="19.5">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="61"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.5">
       <c r="B15" s="79"/>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="84"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="61"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.5">
+      <c r="H15" s="85"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.5">
       <c r="B16" s="79"/>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
-    </row>
-    <row r="17" spans="2:16" ht="19.5">
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="2:17" ht="19.5">
       <c r="B17" s="79"/>
       <c r="C17" s="84"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
-    </row>
-    <row r="18" spans="2:16" ht="19.5">
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="2:17" ht="19.5">
       <c r="B18" s="79"/>
       <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="79"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="61"/>
-    </row>
-    <row r="19" spans="2:16" ht="19.5">
+      <c r="I18" s="79"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="2:17" ht="19.5">
       <c r="B19" s="79"/>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
-      <c r="G19" s="79"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="79"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61"/>
-    </row>
-    <row r="20" spans="2:16" ht="19.5">
+      <c r="I19" s="79"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="2:17" ht="19.5">
       <c r="B20" s="79"/>
       <c r="C20" s="84"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="79"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="61"/>
-    </row>
-    <row r="21" spans="2:16" ht="19.5">
+      <c r="I20" s="79"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="2:17" ht="19.5">
       <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="56"/>
-    </row>
-    <row r="22" spans="2:16" ht="19.5">
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
+    </row>
+    <row r="22" spans="2:17" ht="19.5">
       <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="79"/>
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-    </row>
-    <row r="23" spans="2:16" ht="19.5">
+      <c r="G22" s="79"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="56"/>
+    </row>
+    <row r="23" spans="2:17" ht="19.5">
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
       <c r="F23" s="79"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="61"/>
-    </row>
-    <row r="24" spans="2:16" ht="19.5">
+      <c r="G23" s="79"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+    </row>
+    <row r="24" spans="2:17" ht="19.5">
       <c r="B24" s="79"/>
       <c r="C24" s="80"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
       <c r="F24" s="79"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
-    </row>
-    <row r="25" spans="2:16" ht="19.5">
+      <c r="G24" s="79"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="61"/>
+    </row>
+    <row r="25" spans="2:17" ht="19.5">
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="61"/>
-    </row>
-    <row r="26" spans="2:16" ht="19.5">
+      <c r="G25" s="79"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
+    </row>
+    <row r="26" spans="2:17" ht="19.5">
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="61"/>
-    </row>
-    <row r="27" spans="2:16" ht="19.5">
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
+    </row>
+    <row r="27" spans="2:17" ht="19.5">
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="79"/>
       <c r="E27" s="79"/>
       <c r="F27" s="79"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="61"/>
-    </row>
-    <row r="28" spans="2:16" ht="39.6" customHeight="1">
+      <c r="G27" s="79"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
+    </row>
+    <row r="28" spans="2:17" ht="19.5">
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="61"/>
-    </row>
-    <row r="29" spans="2:16" ht="19.5">
+      <c r="G28" s="79"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
+    </row>
+    <row r="29" spans="2:17" ht="39.6" customHeight="1">
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
       <c r="D29" s="79"/>
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="61"/>
-    </row>
-    <row r="30" spans="2:16" ht="19.5">
+      <c r="G29" s="79"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
+    </row>
+    <row r="30" spans="2:17" ht="19.5">
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="61"/>
-    </row>
-    <row r="31" spans="2:16" ht="19.5">
+      <c r="G30" s="79"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.5">
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="79"/>
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="61"/>
-    </row>
-    <row r="32" spans="2:16" ht="19.5">
+      <c r="G31" s="79"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
+    </row>
+    <row r="32" spans="2:17" ht="19.5">
       <c r="B32" s="79"/>
       <c r="C32" s="80"/>
       <c r="D32" s="79"/>
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="61"/>
-    </row>
-    <row r="33" spans="2:16" ht="19.5">
+      <c r="G32" s="79"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="61"/>
+    </row>
+    <row r="33" spans="2:17" ht="19.5">
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="61"/>
-    </row>
-    <row r="34" spans="2:16" ht="19.5">
+      <c r="G33" s="79"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="2:17" ht="19.5">
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="61"/>
-    </row>
-    <row r="35" spans="2:16" ht="19.5">
+      <c r="G34" s="79"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="61"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.5">
       <c r="B35" s="79"/>
       <c r="C35" s="80"/>
       <c r="D35" s="79"/>
       <c r="E35" s="79"/>
       <c r="F35" s="79"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="61"/>
-    </row>
-    <row r="36" spans="2:16" ht="19.5">
+      <c r="G35" s="79"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="61"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.5">
       <c r="B36" s="79"/>
       <c r="C36" s="80"/>
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
       <c r="F36" s="79"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61"/>
-    </row>
-    <row r="37" spans="2:16" ht="19.5">
+      <c r="G36" s="79"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="61"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.5">
       <c r="B37" s="79"/>
       <c r="C37" s="80"/>
       <c r="D37" s="79"/>
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="61"/>
-    </row>
-    <row r="38" spans="2:16" ht="19.5">
+      <c r="G37" s="79"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="61"/>
+    </row>
+    <row r="38" spans="2:17" ht="19.5">
       <c r="B38" s="79"/>
       <c r="C38" s="80"/>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="61"/>
-    </row>
-    <row r="39" spans="2:16" ht="19.5">
+      <c r="G38" s="79"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="61"/>
+    </row>
+    <row r="39" spans="2:17" ht="19.5">
       <c r="B39" s="79"/>
       <c r="C39" s="80"/>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="61"/>
-    </row>
-    <row r="40" spans="2:16" ht="19.5">
+      <c r="G39" s="79"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="61"/>
+    </row>
+    <row r="40" spans="2:17" ht="19.5">
       <c r="B40" s="79"/>
       <c r="C40" s="80"/>
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="61"/>
-    </row>
-    <row r="41" spans="2:16" ht="19.5">
+      <c r="G40" s="79"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
+    </row>
+    <row r="41" spans="2:17" ht="19.5">
       <c r="B41" s="79"/>
       <c r="C41" s="80"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="61"/>
-    </row>
-    <row r="42" spans="2:16" ht="19.5">
+      <c r="G41" s="79"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="61"/>
+    </row>
+    <row r="42" spans="2:17" ht="19.5">
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="61"/>
-    </row>
-    <row r="43" spans="2:16" ht="19.5">
+      <c r="G42" s="79"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="61"/>
+    </row>
+    <row r="43" spans="2:17" ht="19.5">
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
       <c r="D43" s="79"/>
       <c r="E43" s="79"/>
       <c r="F43" s="79"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="61"/>
-    </row>
-    <row r="44" spans="2:16" ht="19.5">
+      <c r="G43" s="79"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="61"/>
+    </row>
+    <row r="44" spans="2:17" ht="19.5">
       <c r="B44" s="79"/>
       <c r="C44" s="80"/>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="61"/>
-    </row>
-    <row r="45" spans="2:16" ht="19.5">
+      <c r="G44" s="79"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="61"/>
+    </row>
+    <row r="45" spans="2:17" ht="19.5">
       <c r="B45" s="79"/>
       <c r="C45" s="80"/>
       <c r="D45" s="79"/>
       <c r="E45" s="79"/>
       <c r="F45" s="79"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="61"/>
-    </row>
-    <row r="46" spans="2:16" ht="19.5">
+      <c r="G45" s="79"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="61"/>
+    </row>
+    <row r="46" spans="2:17" ht="19.5">
       <c r="B46" s="79"/>
       <c r="C46" s="80"/>
       <c r="D46" s="79"/>
       <c r="E46" s="79"/>
       <c r="F46" s="79"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="61"/>
-    </row>
-    <row r="47" spans="2:16" ht="19.5">
+      <c r="G46" s="79"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="61"/>
+    </row>
+    <row r="47" spans="2:17" ht="19.5">
       <c r="B47" s="79"/>
       <c r="C47" s="80"/>
       <c r="D47" s="79"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="61"/>
-    </row>
-    <row r="48" spans="2:16" ht="19.5">
+      <c r="G47" s="79"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="61"/>
+    </row>
+    <row r="48" spans="2:17" ht="19.5">
       <c r="B48" s="79"/>
       <c r="C48" s="80"/>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
       <c r="F48" s="79"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="61"/>
-    </row>
-    <row r="49" spans="2:16" ht="19.5">
+      <c r="G48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="61"/>
+    </row>
+    <row r="49" spans="2:17" ht="19.5">
       <c r="B49" s="79"/>
       <c r="C49" s="80"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
       <c r="F49" s="79"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="61"/>
-    </row>
-    <row r="50" spans="2:16" ht="19.5">
+      <c r="G49" s="79"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="61"/>
+    </row>
+    <row r="50" spans="2:17" ht="19.5">
       <c r="B50" s="79"/>
       <c r="C50" s="80"/>
       <c r="D50" s="79"/>
       <c r="E50" s="79"/>
       <c r="F50" s="79"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="61"/>
-    </row>
-    <row r="51" spans="2:16" ht="19.5">
+      <c r="G50" s="79"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="61"/>
+    </row>
+    <row r="51" spans="2:17" ht="19.5">
       <c r="B51" s="79"/>
       <c r="C51" s="80"/>
       <c r="D51" s="79"/>
       <c r="E51" s="79"/>
       <c r="F51" s="79"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="61"/>
-    </row>
-    <row r="52" spans="2:16" ht="19.5">
+      <c r="G51" s="79"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="61"/>
+    </row>
+    <row r="52" spans="2:17" ht="19.5">
       <c r="B52" s="79"/>
       <c r="C52" s="80"/>
       <c r="D52" s="79"/>
       <c r="E52" s="79"/>
       <c r="F52" s="79"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="61"/>
-    </row>
-    <row r="53" spans="2:16" ht="19.5">
+      <c r="G52" s="79"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="61"/>
+    </row>
+    <row r="53" spans="2:17" ht="19.5">
       <c r="B53" s="79"/>
       <c r="C53" s="80"/>
       <c r="D53" s="79"/>
       <c r="E53" s="79"/>
       <c r="F53" s="79"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="61"/>
-    </row>
-    <row r="54" spans="2:16" ht="19.5">
+      <c r="G53" s="79"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
+    </row>
+    <row r="54" spans="2:17" ht="19.5">
       <c r="B54" s="79"/>
       <c r="C54" s="80"/>
       <c r="D54" s="79"/>
       <c r="E54" s="79"/>
       <c r="F54" s="79"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="61"/>
-    </row>
-    <row r="55" spans="2:16" ht="19.5">
+      <c r="G54" s="79"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="61"/>
+    </row>
+    <row r="55" spans="2:17" ht="19.5">
       <c r="B55" s="79"/>
       <c r="C55" s="80"/>
       <c r="D55" s="79"/>
       <c r="E55" s="79"/>
       <c r="F55" s="79"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="61"/>
-    </row>
-    <row r="56" spans="2:16" ht="19.5">
+      <c r="G55" s="79"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="61"/>
+    </row>
+    <row r="56" spans="2:17" ht="19.5">
       <c r="B56" s="79"/>
       <c r="C56" s="80"/>
       <c r="D56" s="79"/>
       <c r="E56" s="79"/>
       <c r="F56" s="79"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="61"/>
-    </row>
-    <row r="57" spans="2:16" ht="19.5">
+      <c r="G56" s="79"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="61"/>
+    </row>
+    <row r="57" spans="2:17" ht="19.5">
       <c r="B57" s="79"/>
       <c r="C57" s="80"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
       <c r="F57" s="79"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="61"/>
-    </row>
-    <row r="58" spans="2:16" ht="19.5">
+      <c r="G57" s="79"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="61"/>
+    </row>
+    <row r="58" spans="2:17" ht="19.5">
       <c r="B58" s="79"/>
       <c r="C58" s="80"/>
       <c r="D58" s="79"/>
       <c r="E58" s="79"/>
       <c r="F58" s="79"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="61"/>
-    </row>
-    <row r="59" spans="2:16" ht="19.5">
+      <c r="G58" s="79"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="61"/>
+    </row>
+    <row r="59" spans="2:17" ht="19.5">
       <c r="B59" s="79"/>
       <c r="C59" s="80"/>
       <c r="D59" s="79"/>
       <c r="E59" s="79"/>
       <c r="F59" s="79"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="61"/>
-    </row>
-    <row r="60" spans="2:16" ht="19.5">
+      <c r="G59" s="79"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="61"/>
+    </row>
+    <row r="60" spans="2:17" ht="19.5">
       <c r="B60" s="79"/>
       <c r="C60" s="80"/>
       <c r="D60" s="79"/>
       <c r="E60" s="79"/>
       <c r="F60" s="79"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="61"/>
-    </row>
-    <row r="61" spans="2:16" ht="19.5">
+      <c r="G60" s="79"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="61"/>
+    </row>
+    <row r="61" spans="2:17" ht="19.5">
       <c r="B61" s="79"/>
       <c r="C61" s="80"/>
       <c r="D61" s="79"/>
       <c r="E61" s="79"/>
       <c r="F61" s="79"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="61"/>
-    </row>
-    <row r="62" spans="2:16" ht="19.5">
+      <c r="G61" s="79"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="61"/>
+    </row>
+    <row r="62" spans="2:17" ht="19.5">
       <c r="B62" s="79"/>
       <c r="C62" s="80"/>
       <c r="D62" s="79"/>
       <c r="E62" s="79"/>
       <c r="F62" s="79"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="61"/>
-    </row>
-    <row r="63" spans="2:16" ht="19.5">
+      <c r="G62" s="79"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="61"/>
+    </row>
+    <row r="63" spans="2:17" ht="19.5">
       <c r="B63" s="79"/>
       <c r="C63" s="80"/>
       <c r="D63" s="79"/>
       <c r="E63" s="79"/>
       <c r="F63" s="79"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="61"/>
-    </row>
-    <row r="64" spans="2:16" ht="19.5">
+      <c r="G63" s="79"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="61"/>
+    </row>
+    <row r="64" spans="2:17" ht="19.5">
       <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="79"/>
       <c r="E64" s="79"/>
       <c r="F64" s="79"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="61"/>
-    </row>
-    <row r="65" spans="2:16" ht="19.5">
+      <c r="G64" s="79"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="61"/>
+    </row>
+    <row r="65" spans="2:17" ht="19.5">
       <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="79"/>
       <c r="E65" s="79"/>
       <c r="F65" s="79"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="61"/>
-    </row>
-    <row r="66" spans="2:16" ht="19.5">
+      <c r="G65" s="79"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="61"/>
+    </row>
+    <row r="66" spans="2:17" ht="19.5">
       <c r="B66" s="79"/>
       <c r="C66" s="80"/>
       <c r="D66" s="79"/>
       <c r="E66" s="79"/>
       <c r="F66" s="79"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="61"/>
-    </row>
-    <row r="67" spans="2:16" ht="19.5">
+      <c r="G66" s="79"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="60"/>
+      <c r="Q66" s="61"/>
+    </row>
+    <row r="67" spans="2:17" ht="19.5">
       <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
+      <c r="C67" s="80"/>
       <c r="D67" s="79"/>
       <c r="E67" s="79"/>
       <c r="F67" s="79"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="61"/>
-    </row>
-    <row r="68" spans="2:16" ht="19.5">
+      <c r="G67" s="79"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
+    </row>
+    <row r="68" spans="2:17" ht="19.5">
       <c r="B68" s="79"/>
-      <c r="C68" s="80"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="79"/>
       <c r="E68" s="79"/>
       <c r="F68" s="79"/>
       <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="61"/>
-    </row>
-    <row r="69" spans="2:16" ht="19.5">
+      <c r="H68" s="81"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="61"/>
+    </row>
+    <row r="69" spans="2:17" ht="19.5">
       <c r="B69" s="79"/>
       <c r="C69" s="80"/>
       <c r="D69" s="79"/>
@@ -8159,16 +8789,17 @@
       <c r="F69" s="79"/>
       <c r="G69" s="79"/>
       <c r="H69" s="79"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="61"/>
-    </row>
-    <row r="70" spans="2:16" ht="19.5">
+      <c r="I69" s="79"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="61"/>
+    </row>
+    <row r="70" spans="2:17" ht="19.5">
       <c r="B70" s="79"/>
       <c r="C70" s="80"/>
       <c r="D70" s="79"/>
@@ -8176,16 +8807,17 @@
       <c r="F70" s="79"/>
       <c r="G70" s="79"/>
       <c r="H70" s="79"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="61"/>
-    </row>
-    <row r="71" spans="2:16" ht="20.25" thickBot="1">
+      <c r="I70" s="79"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="61"/>
+    </row>
+    <row r="71" spans="2:17" ht="19.5">
       <c r="B71" s="79"/>
       <c r="C71" s="80"/>
       <c r="D71" s="79"/>
@@ -8193,68 +8825,92 @@
       <c r="F71" s="79"/>
       <c r="G71" s="79"/>
       <c r="H71" s="79"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="65"/>
-    </row>
-    <row r="73" spans="2:16" ht="24">
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="G73" s="50"/>
-      <c r="J73" s="51" t="s">
+      <c r="I71" s="79"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="61"/>
+    </row>
+    <row r="72" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B72" s="79"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="65"/>
+    </row>
+    <row r="74" spans="2:17" ht="24">
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="H74" s="50"/>
+      <c r="K74" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="N73" s="51" t="s">
+      <c r="O74" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="O73" s="3">
-        <f>COUNTA(O4:O71)</f>
+      <c r="P74" s="3">
+        <f>COUNTA(P4:P72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
-      <c r="J74" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="N74" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" s="3">
-        <f>COUNTIF(O4:O71,"〇")</f>
+    <row r="75" spans="2:17">
+      <c r="K75" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="P75" s="3">
+        <f>COUNTIF(P4:P72,"〇")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16">
-      <c r="J75" s="53" t="s">
+    <row r="76" spans="2:17">
+      <c r="K76" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="N75" s="53" t="s">
+      <c r="O76" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="O75" s="3">
-        <f>COUNTIF(O4:O71,"✖")</f>
+      <c r="P76" s="3">
+        <f>COUNTIF(P4:P72,"✖")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16">
-      <c r="J76" s="52" t="s">
+    <row r="77" spans="2:17">
+      <c r="K77" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="K76" s="54"/>
-      <c r="N76" s="52" t="s">
+      <c r="L77" s="54"/>
+      <c r="O77" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="O76" s="55" t="e">
-        <f>O75/O73</f>
+      <c r="P77" s="55" t="e">
+        <f>P76/P74</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
+++ b/資料/設計書/モグラ叩き_テスト仕様書_単体テスト_箱石.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\hakoishi\TechTrain\PIC_Train\C\comp.train.whack-a-mole\資料\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4508499F-6BCC-422C-ABC1-C7B4508B9529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139F88BD-5729-4F72-8070-D2310C52E91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="261">
   <si>
     <t>マイコン：pic16f1827</t>
     <phoneticPr fontId="5"/>
@@ -3439,16 +3439,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>テスト結果値</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>モグラ叩き単体テスト</t>
     <rPh sb="3" eb="4">
       <t>タタ</t>
@@ -3513,54 +3503,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>i_decisionNumberが0x0000のとき、FALSEを返す。
-i_decisionNumberが0xFFFFのとき、TRUEを返す。
-i_decisionNumberがX(0x0001~0xFFFE)で100回実行した時、TRUEを返した回数が X/乱数の最大値(出現率)の±5% 以内か。(出現率シート参照)</t>
-    <rPh sb="33" eb="34">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -3571,38 +3513,6 @@
     <t>境界値テスト</t>
     <rPh sb="0" eb="3">
       <t>キョウカイチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>i_timeに取り得る正常範囲内の値を入力した場合、
-　i_levelがEASY(1)のとき、50(500ms)~200(2,000ms)を返す。
-　i_levelがNORMAL(2)のとき、20(200ms)~150(1,500ms)を返す。
-　i_levelがHARD(3)のとき、20(200ms)~100(1,000ms)を返す。
-　i_levelがそれ以外の場合、0を返す。</t>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3641,67 +3551,6 @@
     <rPh sb="3" eb="5">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint8_t i_level
-　ゲームの難易度。
-　取り得る値は、Enum型のEASY、NORMAL、HARDの
-　0 ~ 2 までの符号なし8bit整数。
-uint8_t i_time
-　ゲームの残り時間。
-　取り得る値は、60 ~ 0までの符号なし8bit整数値。</t>
-    <rPh sb="21" eb="24">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>uint8_t getPopTime(uint8_t i_level,
-　　　　　　　　　　uint8_t i_time)
-　モグラの表示時間を決定する。</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3749,548 +3598,6 @@
   <si>
     <t>uint16_t GetRand()
 　ランダムな値を取得する。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>関数から出力される戻り値が、0x0000 ~ 0xFFFFの間。</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アイダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実装したGetRand()関数と引数をシード値として設定するSetRandSeed()関数をVisual Studio上で呼び出せるようにし、
-main関数にて、次の順で行う動作を10回繰り返す。
-　1. 現在の時間を引数に取ったSetRandSeed()を使い、シード値を変更する。
-　2. GetRandSeed()を1回実行する。
-　3. 出力された乱数と期待値を比較し、一致しなければ、エラーを出して終了する。
-　4. GetRandSeed()を1000回実行するまで、2~3を繰り返す。
-最後までエラーを出さずに処理を行い、正常終了すればテスト成功とする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="232" eb="233">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="270" eb="272">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様通りの値を出力するか</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>境界値テスト
-（引数i_time）</t>
-    <rPh sb="0" eb="3">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>境界値テスト
-（引数i_level)</t>
-    <rPh sb="0" eb="3">
-      <t>キョウカイチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実装したgetPopTime()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う
-（正常値テスト)
-main関数にて、次の動作を行う。
-　1. 引数i_levelの値を0に設定する。
-　2. 引数i_timeを60, 0,  30のそれぞれに設定した場合の出力が期待値と一致するか比較する。
-（異常値テスト）
-main関数にて、次の動作を行う。
-　1. 引数i_levelの値を0に設定する。
-　2. 引数i_timeを61,255のそれぞれに設定した場合の出力が期待値と一致するか比較する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>セイジョウチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="160" eb="163">
-      <t>イジョウチ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="200" eb="201">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実装したgetPopTime()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う
-（正常値テスト)
-main関数にて、次の動作を行う。
-　1. 引数i_timeの値を60に設定する。
-　2. 引数i_levelを0,1,2のそれぞれに設定した場合の出力が期待値と一致するか比較する。
-（異常値テスト）
-main関数にて、次の動作を行う。
-　1. 引数i_timeの値を60に設定する。
-　2. 引数i_levelを3,255のそれぞれに設定した場合の出力が期待値と一致するか比較する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>セイジョウチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="156" eb="159">
-      <t>イジョウチ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実装したPopDecision()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う。
-（正常値テスト）
-main関数にて、次の動作を行う。
-　1. 引数i_devisionNumberの値を0x0000, 0x7FFF, 0xFFFFのそれそれに設定した場合の出力が、期待値と一致するか比較する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>セイジョウチ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>i_levelに取り得る正常値範囲内の値を入力した場合、
-　i_timeが60 ~ 0のとき、i_levelに対応した値を返す。
-i_timeが正常値範囲以外の場合、0を返す。</t>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -4339,6 +3646,543 @@
     </rPh>
     <rPh sb="83" eb="84">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint8_t i_level
+　ゲームの難易度。
+　取り得る値は、Enum型のEASY、NORMAL、HARDの
+　1 ~ 3 までの符号なし8bit整数。
+uint8_t i_time
+　ゲームの残り時間。
+　取り得る値は、60 ~ 0までの符号なし8bit整数値。</t>
+    <rPh sb="21" eb="24">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+  </si>
+  <si>
+    <t>50(500ms)~200(2,000ms)を返す。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20(200ms)~150(1,500ms)を返す。</t>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20(200ms)~100(1,000ms)を返す。</t>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0を返す。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したgetPopTime()関数をVisual Studio上で呼び出せるようにし、次の各テストを行う
+（正常値テスト)
+main関数にて、次の引数を組み合わせて設定し、getPopTime()関数を呼びだす。
+出力された値がその組み合わせの期待値と一致するかをテストする。
+　1. 引数i_levelを1,2,3に設定する。
+　2. 引数i_timeを60, 0,  30に設定する。
+（異常値テスト）
+main関数にて、次の引数を組み合わせて設定し、getPopTime()関数を呼びだす。
+出力された値がその組み合わせの期待値と一致するかをテストする。
+　2. 引数i_levelを0,4,255に設定する。
+　2. 引数i_timeを61,255に設定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="197" eb="200">
+      <t>イジョウチ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FALSEを返す。</t>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TRUEを返す。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様通りに値を出力するか</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>0x7FFF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したPopDecision()関数をVisual Studio上で呼び出せるようにし、次のテストを行う。
+（正常値テスト）
+main関数にて、次の動作を行う。
+　1. 引数i_devisionNumberの値を0x0000, 0x7FFF, 0xFFFFのそれそれに設定する。
+　2.PopDecision()関数を100回実行した場合の出力が、期待値と一致するか比較する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>uint8_t getPopTime(uint8_t i_level, uint8_t i_time)
+　モグラの表示時間を決定する。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>実装したGetRand()関数と引数をシード値として設定するSetRandSeed()関数を
+Visual Studio上で呼び出せるようにし、main関数にて、次の順で行う動作を10回繰り返す。
+　1. 現在の時間を引数に取ったSetRandSeed()を使い、シード値を変更する。
+　2. GetRand()を1回実行し、配列に格納する。
+　3. 今まで格納した全ての乱数と2で出力した値を比較し、一致した回数（MatchCnt)を記録する。
+　4. GetRand()を1000回実行するまで、2~3を繰り返す。
+　5. 最後に、3で記録したMatchCntを出力し、100以内であれば、テスト成功とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="252" eb="253">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定する
+引数1の値</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定する
+引数2の値</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TRUEを返した回数が 50回 ±5% 以内か。
+(出現率シート参照)</t>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・関数から出力される戻り値が、
+　0x0000 ~ 0xFFFFの間。
+かつ
+・一度出力したことのある数と
+　一致した数（MatchCnt）が100以内</t>
+    <rPh sb="1" eb="3">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イナイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4350,7 +4194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4433,6 +4277,15 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4635,10 +4488,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -4655,7 +4508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -4852,9 +4705,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4873,9 +4723,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4915,9 +4762,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4927,17 +4771,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7464,28 +7353,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC3B0F4-38B8-4D50-B22F-81976C94C56C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5:E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.75" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="49.625" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="3" hidden="1" customWidth="1"/>
@@ -7495,18 +7382,17 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30">
       <c r="A1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" thickBot="1"/>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1">
+    <row r="3" spans="1:17" ht="39.75" thickBot="1">
       <c r="B3" s="57" t="s">
         <v>3</v>
       </c>
@@ -7514,28 +7400,28 @@
         <v>224</v>
       </c>
       <c r="D3" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>230</v>
-      </c>
       <c r="F3" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H3" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="57" t="s">
+      <c r="K3" s="57" t="s">
         <v>8</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>225</v>
       </c>
       <c r="L3" s="57" t="s">
         <v>10</v>
@@ -7556,31 +7442,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="156.75" thickBot="1">
-      <c r="B4" s="70">
+    <row r="4" spans="1:17" ht="137.25" thickBot="1">
+      <c r="B4" s="69">
+        <f>ROW(B4)-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="62"/>
+      <c r="C4" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="63"/>
       <c r="L4" s="64"/>
       <c r="M4" s="65"/>
       <c r="N4" s="59"/>
@@ -7588,1328 +7479,2146 @@
       <c r="P4" s="60"/>
       <c r="Q4" s="61"/>
     </row>
-    <row r="5" spans="1:17" ht="176.25" thickBot="1">
-      <c r="B5" s="70">
+    <row r="5" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B5" s="69">
+        <f t="shared" ref="B5:B37" si="0">ROW(B5)-ROW($B$3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="66" t="s">
+      <c r="C5" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
+      <c r="H5" s="106">
+        <v>0</v>
+      </c>
+      <c r="I5" s="106">
+        <v>0</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="59"/>
       <c r="O5" s="56"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="61"/>
     </row>
-    <row r="6" spans="1:17" ht="176.25" thickBot="1">
-      <c r="B6" s="73"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
+    <row r="6" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B6" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="106">
+        <v>0</v>
+      </c>
+      <c r="I6" s="106">
+        <v>30</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="94"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="59"/>
       <c r="O6" s="56"/>
       <c r="P6" s="60"/>
       <c r="Q6" s="61"/>
     </row>
-    <row r="7" spans="1:17" ht="117.75" thickBot="1">
-      <c r="B7" s="73">
-        <v>3</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="68"/>
+    <row r="7" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B7" s="69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="106">
+        <v>0</v>
+      </c>
+      <c r="I7" s="106">
+        <v>60</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="59"/>
       <c r="O7" s="56"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="61"/>
     </row>
-    <row r="8" spans="1:17" ht="19.5">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="71"/>
+    <row r="8" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B8" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="106">
+        <v>0</v>
+      </c>
+      <c r="I8" s="106">
+        <v>61</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="59"/>
       <c r="O8" s="56"/>
       <c r="P8" s="60"/>
       <c r="Q8" s="61"/>
     </row>
-    <row r="9" spans="1:17" ht="19.5">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="3">
-        <f>COUNTA(L4:L7)</f>
+    <row r="9" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B9" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="106">
         <v>0</v>
       </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="71"/>
+      <c r="I9" s="106">
+        <v>255</v>
+      </c>
+      <c r="J9" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="56"/>
       <c r="P9" s="60"/>
       <c r="Q9" s="61"/>
     </row>
-    <row r="10" spans="1:17" ht="39">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="71"/>
+    <row r="10" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B10" s="69">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="106">
+        <v>1</v>
+      </c>
+      <c r="I10" s="106">
+        <v>0</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="59"/>
       <c r="O10" s="56"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="61"/>
     </row>
-    <row r="11" spans="1:17" ht="19.5">
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="71"/>
+    <row r="11" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B11" s="69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="106">
+        <v>1</v>
+      </c>
+      <c r="I11" s="106">
+        <v>30</v>
+      </c>
+      <c r="J11" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="56"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="61"/>
     </row>
-    <row r="12" spans="1:17" ht="19.5">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="71"/>
+    <row r="12" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B12" s="69">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="106">
+        <v>1</v>
+      </c>
+      <c r="I12" s="106">
+        <v>60</v>
+      </c>
+      <c r="J12" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="56"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="61"/>
     </row>
-    <row r="13" spans="1:17" ht="19.5">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="71"/>
+    <row r="13" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B13" s="69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="106">
+        <v>1</v>
+      </c>
+      <c r="I13" s="106">
+        <v>61</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="56"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="61"/>
     </row>
-    <row r="14" spans="1:17" ht="19.5">
-      <c r="B14" s="79"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="71"/>
+    <row r="14" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B14" s="69">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="106">
+        <v>1</v>
+      </c>
+      <c r="I14" s="106">
+        <v>255</v>
+      </c>
+      <c r="J14" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="56"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="61"/>
     </row>
-    <row r="15" spans="1:17" ht="19.5">
-      <c r="B15" s="79"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="71"/>
+    <row r="15" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B15" s="69">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="106">
+        <v>2</v>
+      </c>
+      <c r="I15" s="106">
+        <v>0</v>
+      </c>
+      <c r="J15" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="56"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="61"/>
     </row>
-    <row r="16" spans="1:17" ht="19.5">
-      <c r="B16" s="79"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="71"/>
+    <row r="16" spans="1:17" ht="20.25" thickBot="1">
+      <c r="B16" s="69">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="106">
+        <v>2</v>
+      </c>
+      <c r="I16" s="106">
+        <v>30</v>
+      </c>
+      <c r="J16" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="59"/>
       <c r="O16" s="56"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="61"/>
     </row>
-    <row r="17" spans="2:17" ht="19.5">
-      <c r="B17" s="79"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="71"/>
+    <row r="17" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B17" s="69">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="106">
+        <v>2</v>
+      </c>
+      <c r="I17" s="106">
+        <v>60</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="56"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="61"/>
     </row>
-    <row r="18" spans="2:17" ht="19.5">
-      <c r="B18" s="79"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="71"/>
+    <row r="18" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B18" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="106">
+        <v>2</v>
+      </c>
+      <c r="I18" s="106">
+        <v>61</v>
+      </c>
+      <c r="J18" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="59"/>
       <c r="O18" s="56"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="61"/>
     </row>
-    <row r="19" spans="2:17" ht="19.5">
-      <c r="B19" s="79"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="71"/>
+    <row r="19" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B19" s="69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="106">
+        <v>2</v>
+      </c>
+      <c r="I19" s="106">
+        <v>255</v>
+      </c>
+      <c r="J19" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" s="94"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="56"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="61"/>
     </row>
-    <row r="20" spans="2:17" ht="19.5">
-      <c r="B20" s="79"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="71"/>
+    <row r="20" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B20" s="69">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="106">
+        <v>3</v>
+      </c>
+      <c r="I20" s="106">
+        <v>0</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="59"/>
       <c r="O20" s="56"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="61"/>
     </row>
-    <row r="21" spans="2:17" ht="19.5">
-      <c r="B21" s="79"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="71"/>
+    <row r="21" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B21" s="69">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="106">
+        <v>3</v>
+      </c>
+      <c r="I21" s="106">
+        <v>30</v>
+      </c>
+      <c r="J21" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="94"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="59"/>
       <c r="O21" s="56"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="61"/>
     </row>
-    <row r="22" spans="2:17" ht="19.5">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="71"/>
+    <row r="22" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B22" s="69">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="106">
+        <v>3</v>
+      </c>
+      <c r="I22" s="106">
+        <v>60</v>
+      </c>
+      <c r="J22" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="59"/>
       <c r="O22" s="56"/>
       <c r="P22" s="60"/>
-      <c r="Q22" s="56"/>
-    </row>
-    <row r="23" spans="2:17" ht="19.5">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="71"/>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B23" s="69">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="98"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="106">
+        <v>3</v>
+      </c>
+      <c r="I23" s="106">
+        <v>61</v>
+      </c>
+      <c r="J23" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="94"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="59"/>
       <c r="O23" s="56"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="61"/>
     </row>
-    <row r="24" spans="2:17" ht="19.5">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="71"/>
+    <row r="24" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B24" s="69">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="106">
+        <v>3</v>
+      </c>
+      <c r="I24" s="106">
+        <v>255</v>
+      </c>
+      <c r="J24" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="94"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="59"/>
       <c r="O24" s="56"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="61"/>
     </row>
-    <row r="25" spans="2:17" ht="19.5">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="71"/>
+    <row r="25" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B25" s="69">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="106">
+        <v>4</v>
+      </c>
+      <c r="I25" s="106">
+        <v>0</v>
+      </c>
+      <c r="J25" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" s="94"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="59"/>
       <c r="O25" s="56"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="61"/>
     </row>
-    <row r="26" spans="2:17" ht="19.5">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="71"/>
+    <row r="26" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B26" s="69">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="106">
+        <v>4</v>
+      </c>
+      <c r="I26" s="106">
+        <v>30</v>
+      </c>
+      <c r="J26" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="94"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="59"/>
       <c r="O26" s="56"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="61"/>
     </row>
-    <row r="27" spans="2:17" ht="19.5">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="71"/>
+    <row r="27" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B27" s="69">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="106">
+        <v>4</v>
+      </c>
+      <c r="I27" s="106">
+        <v>60</v>
+      </c>
+      <c r="J27" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" s="94"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="59"/>
       <c r="O27" s="56"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="61"/>
     </row>
-    <row r="28" spans="2:17" ht="19.5">
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="71"/>
+    <row r="28" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B28" s="69">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="106">
+        <v>4</v>
+      </c>
+      <c r="I28" s="106">
+        <v>61</v>
+      </c>
+      <c r="J28" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="94"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="59"/>
       <c r="O28" s="56"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="61"/>
     </row>
-    <row r="29" spans="2:17" ht="39.6" customHeight="1">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="71"/>
+    <row r="29" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B29" s="69">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="98"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="106">
+        <v>4</v>
+      </c>
+      <c r="I29" s="106">
+        <v>255</v>
+      </c>
+      <c r="J29" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="94"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="59"/>
       <c r="O29" s="56"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="61"/>
     </row>
-    <row r="30" spans="2:17" ht="19.5">
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="71"/>
+    <row r="30" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B30" s="69">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="106">
+        <v>255</v>
+      </c>
+      <c r="I30" s="106">
+        <v>0</v>
+      </c>
+      <c r="J30" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" s="94"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="59"/>
       <c r="O30" s="56"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="61"/>
     </row>
-    <row r="31" spans="2:17" ht="19.5">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="71"/>
+    <row r="31" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B31" s="69">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="106">
+        <v>255</v>
+      </c>
+      <c r="I31" s="106">
+        <v>30</v>
+      </c>
+      <c r="J31" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" s="94"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="59"/>
       <c r="O31" s="56"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="61"/>
     </row>
-    <row r="32" spans="2:17" ht="19.5">
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="71"/>
+    <row r="32" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B32" s="69">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="98"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="106">
+        <v>255</v>
+      </c>
+      <c r="I32" s="106">
+        <v>60</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="94"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="59"/>
       <c r="O32" s="56"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="61"/>
     </row>
-    <row r="33" spans="2:17" ht="19.5">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="71"/>
+    <row r="33" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B33" s="69">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="98"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="106">
+        <v>255</v>
+      </c>
+      <c r="I33" s="106">
+        <v>61</v>
+      </c>
+      <c r="J33" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" s="94"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="56"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="61"/>
     </row>
-    <row r="34" spans="2:17" ht="19.5">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="71"/>
+    <row r="34" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B34" s="69">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="106">
+        <v>255</v>
+      </c>
+      <c r="I34" s="106">
+        <v>255</v>
+      </c>
+      <c r="J34" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="59"/>
       <c r="O34" s="56"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="61"/>
     </row>
-    <row r="35" spans="2:17" ht="19.5">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="71"/>
+    <row r="35" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B35" s="69">
+        <f>ROW(B35)-ROW($B$3)</f>
+        <v>32</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="59"/>
       <c r="O35" s="56"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="61"/>
     </row>
-    <row r="36" spans="2:17" ht="19.5">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="71"/>
+    <row r="36" spans="2:17" ht="39.75" thickBot="1">
+      <c r="B36" s="69">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="104" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="70"/>
       <c r="O36" s="56"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="61"/>
     </row>
-    <row r="37" spans="2:17" ht="19.5">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="71"/>
+    <row r="37" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B37" s="69">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="99"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="J37" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="94"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="70"/>
       <c r="O37" s="56"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="61"/>
     </row>
     <row r="38" spans="2:17" ht="19.5">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="71"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="70"/>
       <c r="O38" s="56"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="61"/>
     </row>
     <row r="39" spans="2:17" ht="19.5">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="71"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="3">
+        <f>COUNTA(L4:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="82"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="56"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="61"/>
     </row>
-    <row r="40" spans="2:17" ht="19.5">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="71"/>
+    <row r="40" spans="2:17" ht="39">
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="M40" s="82"/>
+      <c r="N40" s="70"/>
       <c r="O40" s="56"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="61"/>
     </row>
     <row r="41" spans="2:17" ht="19.5">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="71"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="M41" s="82"/>
+      <c r="N41" s="70"/>
       <c r="O41" s="56"/>
       <c r="P41" s="60"/>
       <c r="Q41" s="61"/>
     </row>
     <row r="42" spans="2:17" ht="19.5">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="71"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="70"/>
       <c r="O42" s="56"/>
       <c r="P42" s="60"/>
       <c r="Q42" s="61"/>
     </row>
     <row r="43" spans="2:17" ht="19.5">
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="71"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="70"/>
       <c r="O43" s="56"/>
       <c r="P43" s="60"/>
       <c r="Q43" s="61"/>
     </row>
     <row r="44" spans="2:17" ht="19.5">
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="79"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
       <c r="J44" s="82"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="71"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="70"/>
       <c r="O44" s="56"/>
       <c r="P44" s="60"/>
       <c r="Q44" s="61"/>
     </row>
     <row r="45" spans="2:17" ht="19.5">
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="71"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="70"/>
       <c r="O45" s="56"/>
       <c r="P45" s="60"/>
       <c r="Q45" s="61"/>
     </row>
     <row r="46" spans="2:17" ht="19.5">
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="79"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
       <c r="J46" s="82"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="71"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="70"/>
       <c r="O46" s="56"/>
       <c r="P46" s="60"/>
       <c r="Q46" s="61"/>
     </row>
     <row r="47" spans="2:17" ht="19.5">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="71"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="70"/>
       <c r="O47" s="56"/>
       <c r="P47" s="60"/>
       <c r="Q47" s="61"/>
     </row>
     <row r="48" spans="2:17" ht="19.5">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="71"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="70"/>
       <c r="O48" s="56"/>
       <c r="P48" s="60"/>
       <c r="Q48" s="61"/>
     </row>
     <row r="49" spans="2:17" ht="19.5">
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="71"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="70"/>
       <c r="O49" s="56"/>
       <c r="P49" s="60"/>
       <c r="Q49" s="61"/>
     </row>
     <row r="50" spans="2:17" ht="19.5">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="71"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="70"/>
       <c r="O50" s="56"/>
       <c r="P50" s="60"/>
       <c r="Q50" s="61"/>
     </row>
     <row r="51" spans="2:17" ht="19.5">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="71"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="70"/>
       <c r="O51" s="56"/>
       <c r="P51" s="60"/>
       <c r="Q51" s="61"/>
     </row>
     <row r="52" spans="2:17" ht="19.5">
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="71"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="70"/>
       <c r="O52" s="56"/>
       <c r="P52" s="60"/>
-      <c r="Q52" s="61"/>
+      <c r="Q52" s="56"/>
     </row>
     <row r="53" spans="2:17" ht="19.5">
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="71"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="70"/>
       <c r="O53" s="56"/>
       <c r="P53" s="60"/>
       <c r="Q53" s="61"/>
     </row>
     <row r="54" spans="2:17" ht="19.5">
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="71"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="70"/>
       <c r="O54" s="56"/>
       <c r="P54" s="60"/>
       <c r="Q54" s="61"/>
     </row>
     <row r="55" spans="2:17" ht="19.5">
-      <c r="B55" s="79"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="71"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="70"/>
       <c r="O55" s="56"/>
       <c r="P55" s="60"/>
       <c r="Q55" s="61"/>
     </row>
     <row r="56" spans="2:17" ht="19.5">
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="71"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="70"/>
       <c r="O56" s="56"/>
       <c r="P56" s="60"/>
       <c r="Q56" s="61"/>
     </row>
     <row r="57" spans="2:17" ht="19.5">
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="71"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="70"/>
       <c r="O57" s="56"/>
       <c r="P57" s="60"/>
       <c r="Q57" s="61"/>
     </row>
     <row r="58" spans="2:17" ht="19.5">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="71"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="70"/>
       <c r="O58" s="56"/>
       <c r="P58" s="60"/>
       <c r="Q58" s="61"/>
     </row>
     <row r="59" spans="2:17" ht="19.5">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="71"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="70"/>
       <c r="O59" s="56"/>
       <c r="P59" s="60"/>
       <c r="Q59" s="61"/>
     </row>
     <row r="60" spans="2:17" ht="19.5">
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="71"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="70"/>
       <c r="O60" s="56"/>
       <c r="P60" s="60"/>
       <c r="Q60" s="61"/>
     </row>
     <row r="61" spans="2:17" ht="19.5">
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="71"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="70"/>
       <c r="O61" s="56"/>
       <c r="P61" s="60"/>
       <c r="Q61" s="61"/>
     </row>
     <row r="62" spans="2:17" ht="19.5">
-      <c r="B62" s="79"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="71"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="70"/>
       <c r="O62" s="56"/>
       <c r="P62" s="60"/>
       <c r="Q62" s="61"/>
     </row>
     <row r="63" spans="2:17" ht="19.5">
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="71"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="70"/>
       <c r="O63" s="56"/>
       <c r="P63" s="60"/>
       <c r="Q63" s="61"/>
     </row>
     <row r="64" spans="2:17" ht="19.5">
-      <c r="B64" s="79"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="71"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="70"/>
       <c r="O64" s="56"/>
       <c r="P64" s="60"/>
       <c r="Q64" s="61"/>
     </row>
     <row r="65" spans="2:17" ht="19.5">
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="71"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="70"/>
       <c r="O65" s="56"/>
       <c r="P65" s="60"/>
       <c r="Q65" s="61"/>
     </row>
     <row r="66" spans="2:17" ht="19.5">
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="71"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="70"/>
       <c r="O66" s="56"/>
       <c r="P66" s="60"/>
       <c r="Q66" s="61"/>
     </row>
     <row r="67" spans="2:17" ht="19.5">
-      <c r="B67" s="79"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="71"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="70"/>
       <c r="O67" s="56"/>
       <c r="P67" s="60"/>
       <c r="Q67" s="61"/>
     </row>
     <row r="68" spans="2:17" ht="19.5">
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="71"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="70"/>
       <c r="O68" s="56"/>
       <c r="P68" s="60"/>
       <c r="Q68" s="61"/>
     </row>
     <row r="69" spans="2:17" ht="19.5">
-      <c r="B69" s="79"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="71"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="81"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="70"/>
       <c r="O69" s="56"/>
       <c r="P69" s="60"/>
       <c r="Q69" s="61"/>
     </row>
     <row r="70" spans="2:17" ht="19.5">
-      <c r="B70" s="79"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="82"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="71"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="70"/>
       <c r="O70" s="56"/>
       <c r="P70" s="60"/>
       <c r="Q70" s="61"/>
     </row>
     <row r="71" spans="2:17" ht="19.5">
-      <c r="B71" s="79"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="71"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="70"/>
       <c r="O71" s="56"/>
       <c r="P71" s="60"/>
       <c r="Q71" s="61"/>
     </row>
-    <row r="72" spans="2:17" ht="20.25" thickBot="1">
-      <c r="B72" s="79"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="65"/>
-    </row>
-    <row r="74" spans="2:17" ht="24">
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="H74" s="50"/>
-      <c r="K74" s="51" t="s">
+    <row r="72" spans="2:17" ht="19.5">
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="61"/>
+    </row>
+    <row r="73" spans="2:17" ht="19.5">
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="61"/>
+    </row>
+    <row r="74" spans="2:17" ht="19.5">
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="82"/>
+      <c r="N74" s="70"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="61"/>
+    </row>
+    <row r="75" spans="2:17" ht="19.5">
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="61"/>
+    </row>
+    <row r="76" spans="2:17" ht="19.5">
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="81"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="70"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="61"/>
+    </row>
+    <row r="77" spans="2:17" ht="19.5">
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="61"/>
+    </row>
+    <row r="78" spans="2:17" ht="19.5">
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="70"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="60"/>
+      <c r="Q78" s="61"/>
+    </row>
+    <row r="79" spans="2:17" ht="19.5">
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="61"/>
+    </row>
+    <row r="80" spans="2:17" ht="19.5">
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="61"/>
+    </row>
+    <row r="81" spans="2:17" ht="19.5">
+      <c r="B81" s="77"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="82"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="61"/>
+    </row>
+    <row r="82" spans="2:17" ht="19.5">
+      <c r="B82" s="77"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="82"/>
+      <c r="N82" s="70"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="61"/>
+    </row>
+    <row r="83" spans="2:17" ht="19.5">
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="82"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="61"/>
+    </row>
+    <row r="84" spans="2:17" ht="19.5">
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="61"/>
+    </row>
+    <row r="85" spans="2:17" ht="19.5">
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="82"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="61"/>
+    </row>
+    <row r="86" spans="2:17" ht="19.5">
+      <c r="B86" s="77"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="70"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="61"/>
+    </row>
+    <row r="87" spans="2:17" ht="19.5">
+      <c r="B87" s="77"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="60"/>
+      <c r="Q87" s="61"/>
+    </row>
+    <row r="88" spans="2:17" ht="19.5">
+      <c r="B88" s="77"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="80"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="82"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="61"/>
+    </row>
+    <row r="89" spans="2:17" ht="19.5">
+      <c r="B89" s="77"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="61"/>
+    </row>
+    <row r="90" spans="2:17" ht="19.5">
+      <c r="B90" s="77"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="80"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="82"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="61"/>
+    </row>
+    <row r="91" spans="2:17" ht="19.5">
+      <c r="B91" s="77"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="80"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="61"/>
+    </row>
+    <row r="92" spans="2:17" ht="19.5">
+      <c r="B92" s="77"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="82"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="61"/>
+    </row>
+    <row r="93" spans="2:17" ht="19.5">
+      <c r="B93" s="77"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="82"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="56"/>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="61"/>
+    </row>
+    <row r="94" spans="2:17" ht="19.5">
+      <c r="B94" s="77"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="82"/>
+      <c r="N94" s="70"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="61"/>
+    </row>
+    <row r="95" spans="2:17" ht="19.5">
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="80"/>
+      <c r="L95" s="81"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="61"/>
+    </row>
+    <row r="96" spans="2:17" ht="19.5">
+      <c r="B96" s="77"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="80"/>
+      <c r="L96" s="81"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="60"/>
+      <c r="Q96" s="61"/>
+    </row>
+    <row r="97" spans="2:17" ht="19.5">
+      <c r="B97" s="77"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="82"/>
+      <c r="N97" s="70"/>
+      <c r="O97" s="56"/>
+      <c r="P97" s="60"/>
+      <c r="Q97" s="61"/>
+    </row>
+    <row r="98" spans="2:17" ht="19.5">
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="79"/>
+      <c r="K98" s="80"/>
+      <c r="L98" s="81"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="56"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="61"/>
+    </row>
+    <row r="99" spans="2:17" ht="19.5">
+      <c r="B99" s="77"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="80"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="82"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="56"/>
+      <c r="P99" s="60"/>
+      <c r="Q99" s="61"/>
+    </row>
+    <row r="100" spans="2:17" ht="19.5">
+      <c r="B100" s="77"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="80"/>
+      <c r="L100" s="81"/>
+      <c r="M100" s="82"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="56"/>
+      <c r="P100" s="60"/>
+      <c r="Q100" s="61"/>
+    </row>
+    <row r="101" spans="2:17" ht="19.5">
+      <c r="B101" s="77"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="81"/>
+      <c r="M101" s="82"/>
+      <c r="N101" s="70"/>
+      <c r="O101" s="56"/>
+      <c r="P101" s="60"/>
+      <c r="Q101" s="61"/>
+    </row>
+    <row r="102" spans="2:17" ht="20.25" thickBot="1">
+      <c r="B102" s="77"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="80"/>
+      <c r="L102" s="81"/>
+      <c r="M102" s="82"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="65"/>
+    </row>
+    <row r="104" spans="2:17" ht="24">
+      <c r="B104" s="49"/>
+      <c r="C104" s="49"/>
+      <c r="J104" s="50"/>
+      <c r="O104" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="O74" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="P74" s="3">
-        <f>COUNTA(P4:P72)</f>
+      <c r="P104" s="3">
+        <f>COUNTA(P4:P102)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:17">
-      <c r="K75" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="O75" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="P75" s="3">
-        <f>COUNTIF(P4:P72,"〇")</f>
+    <row r="105" spans="2:17">
+      <c r="O105" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="P105" s="3">
+        <f>COUNTIF(P4:P102,"〇")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:17">
-      <c r="K76" s="53" t="s">
+    <row r="106" spans="2:17">
+      <c r="O106" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="O76" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="P76" s="3">
-        <f>COUNTIF(P4:P72,"✖")</f>
+      <c r="P106" s="3">
+        <f>COUNTIF(P4:P102,"✖")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:17">
-      <c r="K77" s="52" t="s">
+    <row r="107" spans="2:17">
+      <c r="L107" s="54"/>
+      <c r="O107" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="L77" s="54"/>
-      <c r="O77" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="P77" s="55" t="e">
-        <f>P76/P74</f>
+      <c r="P107" s="55" t="e">
+        <f>P106/P104</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="10">
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C5:C34"/>
+    <mergeCell ref="G5:G34"/>
+    <mergeCell ref="F5:F34"/>
+    <mergeCell ref="D5:D34"/>
+    <mergeCell ref="E5:E34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
